--- a/AAII_Financials/Quarterly/VYCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYCO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>VYCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,131 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E8" s="3">
         <v>400</v>
       </c>
       <c r="F8" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G8" s="3">
         <v>400</v>
       </c>
       <c r="H8" s="3">
+        <v>400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>400</v>
+      </c>
+      <c r="J8" s="3">
         <v>500</v>
-      </c>
-      <c r="I8" s="3">
-        <v>300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>300</v>
       </c>
       <c r="K8" s="3">
         <v>300</v>
       </c>
       <c r="L8" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M8" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N8" s="3">
         <v>400</v>
       </c>
       <c r="O8" s="3">
+        <v>700</v>
+      </c>
+      <c r="P8" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -802,69 +815,81 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E10" s="3">
         <v>400</v>
       </c>
       <c r="F10" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G10" s="3">
         <v>400</v>
       </c>
       <c r="H10" s="3">
+        <v>400</v>
+      </c>
+      <c r="I10" s="3">
+        <v>400</v>
+      </c>
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
-      </c>
-      <c r="J10" s="3">
-        <v>300</v>
-      </c>
-      <c r="K10" s="3">
-        <v>200</v>
       </c>
       <c r="L10" s="3">
         <v>300</v>
       </c>
       <c r="M10" s="3">
+        <v>200</v>
+      </c>
+      <c r="N10" s="3">
+        <v>300</v>
+      </c>
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,26 +934,32 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
+      <c r="K12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>8</v>
+      <c r="M12" s="3">
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,37 +1002,43 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>300</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>300</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1040,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3">
         <v>100</v>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>100</v>
+      </c>
+      <c r="R15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1123,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1087,81 +1140,93 @@
         <v>500</v>
       </c>
       <c r="G17" s="3">
+        <v>600</v>
+      </c>
+      <c r="H17" s="3">
+        <v>500</v>
+      </c>
+      <c r="I17" s="3">
         <v>900</v>
-      </c>
-      <c r="H17" s="3">
-        <v>600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>700</v>
       </c>
       <c r="J17" s="3">
         <v>600</v>
       </c>
       <c r="K17" s="3">
+        <v>700</v>
+      </c>
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
-        <v>700</v>
-      </c>
       <c r="M17" s="3">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="N17" s="3">
         <v>700</v>
       </c>
       <c r="O17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P17" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
         <v>-200</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G18" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-300</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
       </c>
       <c r="M18" s="3">
-        <v>-700</v>
+        <v>-300</v>
       </c>
       <c r="N18" s="3">
         <v>-300</v>
       </c>
       <c r="O18" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="P18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1190,14 +1257,14 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1208,36 +1275,42 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
         <v>-200</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G21" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
@@ -1246,28 +1319,34 @@
         <v>-400</v>
       </c>
       <c r="J21" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="L21" s="3">
         <v>-300</v>
       </c>
       <c r="M21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O21" s="3">
         <v>-500</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-400</v>
       </c>
       <c r="P21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,8 +1389,14 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1325,37 +1410,43 @@
         <v>-200</v>
       </c>
       <c r="G23" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
       <c r="I23" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="J23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K23" s="3">
         <v>-400</v>
       </c>
       <c r="L23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O23" s="3">
         <v>-700</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-500</v>
       </c>
       <c r="P23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1539,14 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1457,81 +1560,93 @@
         <v>-200</v>
       </c>
       <c r="G26" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
       </c>
       <c r="I26" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="J26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K26" s="3">
         <v>-400</v>
       </c>
       <c r="L26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O26" s="3">
         <v>-700</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-500</v>
       </c>
       <c r="P26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
       </c>
       <c r="F27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G27" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="H27" s="3">
         <v>-300</v>
       </c>
       <c r="I27" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="J27" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="K27" s="3">
         <v>-400</v>
       </c>
       <c r="L27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1718,13 +1857,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1736,13 +1875,13 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -1750,52 +1889,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
       </c>
       <c r="F33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G33" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="H33" s="3">
         <v>-300</v>
       </c>
       <c r="I33" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="J33" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="K33" s="3">
         <v>-400</v>
       </c>
       <c r="L33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
       </c>
       <c r="F35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G35" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="H35" s="3">
         <v>-300</v>
       </c>
       <c r="I35" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="J35" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="K35" s="3">
         <v>-400</v>
       </c>
       <c r="L35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2138,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1994,25 +2167,31 @@
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2067,25 +2252,25 @@
         <v>300</v>
       </c>
       <c r="F43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
       </c>
       <c r="H43" s="3">
+        <v>300</v>
+      </c>
+      <c r="I43" s="3">
+        <v>300</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
@@ -2097,10 +2282,16 @@
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2108,16 +2299,16 @@
         <v>200</v>
       </c>
       <c r="E44" s="3">
+        <v>200</v>
+      </c>
+      <c r="F44" s="3">
+        <v>200</v>
+      </c>
+      <c r="G44" s="3">
         <v>300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>300</v>
-      </c>
-      <c r="G44" s="3">
-        <v>200</v>
-      </c>
-      <c r="H44" s="3">
-        <v>200</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>200</v>
+      </c>
+      <c r="R44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2155,14 +2352,14 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
@@ -2187,52 +2384,64 @@
       <c r="P45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E46" s="3">
         <v>700</v>
       </c>
       <c r="F46" s="3">
+        <v>700</v>
+      </c>
+      <c r="G46" s="3">
+        <v>700</v>
+      </c>
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,13 +2484,19 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>400</v>
@@ -2296,10 +2511,10 @@
         <v>400</v>
       </c>
       <c r="I48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K48" s="3">
         <v>500</v>
@@ -2314,13 +2529,19 @@
         <v>500</v>
       </c>
       <c r="O48" s="3">
+        <v>500</v>
+      </c>
+      <c r="P48" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q48" s="3">
         <v>400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2337,10 +2558,10 @@
         <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>300</v>
@@ -2349,22 +2570,28 @@
         <v>300</v>
       </c>
       <c r="L49" s="3">
+        <v>300</v>
+      </c>
+      <c r="M49" s="3">
+        <v>300</v>
+      </c>
+      <c r="N49" s="3">
         <v>400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>400</v>
-      </c>
-      <c r="N49" s="3">
-        <v>500</v>
-      </c>
-      <c r="O49" s="3">
-        <v>500</v>
       </c>
       <c r="P49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>500</v>
+      </c>
+      <c r="R49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2784,14 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2551,40 +2802,46 @@
         <v>1100</v>
       </c>
       <c r="F54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H54" s="3">
         <v>1200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1000</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1300</v>
       </c>
       <c r="J54" s="3">
         <v>1400</v>
       </c>
       <c r="K54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L54" s="3">
         <v>1400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N54" s="3">
         <v>1700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,25 +2878,27 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -2649,22 +2910,28 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
       <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2672,7 +2939,7 @@
         <v>600</v>
       </c>
       <c r="E58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F58" s="3">
         <v>600</v>
@@ -2681,19 +2948,19 @@
         <v>500</v>
       </c>
       <c r="H58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I58" s="3">
         <v>500</v>
       </c>
       <c r="J58" s="3">
+        <v>500</v>
+      </c>
+      <c r="K58" s="3">
+        <v>500</v>
+      </c>
+      <c r="L58" s="3">
         <v>400</v>
-      </c>
-      <c r="K58" s="3">
-        <v>300</v>
-      </c>
-      <c r="L58" s="3">
-        <v>300</v>
       </c>
       <c r="M58" s="3">
         <v>300</v>
@@ -2702,101 +2969,119 @@
         <v>300</v>
       </c>
       <c r="O58" s="3">
+        <v>300</v>
+      </c>
+      <c r="P58" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>900</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1100</v>
       </c>
       <c r="K59" s="3">
         <v>900</v>
       </c>
       <c r="L59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M59" s="3">
+        <v>900</v>
+      </c>
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1000</v>
       </c>
       <c r="N60" s="3">
         <v>1300</v>
       </c>
       <c r="O60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,25 +3124,31 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
@@ -2865,11 +3156,11 @@
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G66" s="3">
         <v>2200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1000</v>
       </c>
       <c r="N66" s="3">
         <v>1300</v>
       </c>
       <c r="O66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-29600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-29200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-29000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-28700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-28200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-27900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-27500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-27000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-26600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-26000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-25600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-25200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-24700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
-        <v>100</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
+        <v>100</v>
+      </c>
+      <c r="N76" s="3">
         <v>400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>800</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>
       </c>
       <c r="F81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G81" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="H81" s="3">
         <v>-300</v>
       </c>
       <c r="I81" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="J81" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="K81" s="3">
         <v>-400</v>
       </c>
       <c r="L81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3655,10 +4052,10 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,19 +4319,25 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -3913,13 +4346,13 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-200</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
@@ -3928,16 +4361,22 @@
         <v>-200</v>
       </c>
       <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3984,22 +4425,28 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4116,22 +4575,28 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,28 +4809,34 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
@@ -4354,22 +4845,28 @@
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4909,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4436,24 +4939,30 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VYCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>VYCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>300</v>
+      </c>
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
-        <v>400</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
-      </c>
-      <c r="G8" s="3">
-        <v>400</v>
       </c>
       <c r="H8" s="3">
         <v>400</v>
       </c>
       <c r="I8" s="3">
+        <v>300</v>
+      </c>
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
-      </c>
-      <c r="K8" s="3">
-        <v>300</v>
       </c>
       <c r="L8" s="3">
         <v>300</v>
@@ -774,22 +778,25 @@
         <v>300</v>
       </c>
       <c r="N8" s="3">
+        <v>300</v>
+      </c>
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>300</v>
       </c>
       <c r="R8" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -821,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
@@ -830,7 +837,7 @@
         <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -838,58 +845,64 @@
       <c r="R9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>300</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
-        <v>400</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
-      </c>
-      <c r="G10" s="3">
-        <v>400</v>
       </c>
       <c r="H10" s="3">
         <v>400</v>
       </c>
       <c r="I10" s="3">
+        <v>300</v>
+      </c>
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
-      </c>
-      <c r="K10" s="3">
-        <v>300</v>
       </c>
       <c r="L10" s="3">
         <v>300</v>
       </c>
       <c r="M10" s="3">
+        <v>300</v>
+      </c>
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>300</v>
       </c>
       <c r="R10" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -940,11 +954,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>8</v>
@@ -952,14 +966,17 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,19 +1025,22 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1028,11 +1048,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>300</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1040,8 +1060,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1091,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3">
         <v>100</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,63 +1151,67 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>600</v>
       </c>
       <c r="H17" s="3">
         <v>500</v>
       </c>
       <c r="I17" s="3">
+        <v>500</v>
+      </c>
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>600</v>
       </c>
       <c r="M17" s="3">
         <v>600</v>
       </c>
       <c r="N17" s="3">
+        <v>600</v>
+      </c>
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E18" s="3">
         <v>-200</v>
@@ -1196,16 +1226,16 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-300</v>
       </c>
       <c r="M18" s="3">
         <v>-300</v>
@@ -1214,19 +1244,22 @@
         <v>-300</v>
       </c>
       <c r="O18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1263,29 +1297,29 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1295,16 +1329,19 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-200</v>
       </c>
       <c r="F21" s="3">
         <v>-200</v>
@@ -1316,16 +1353,16 @@
         <v>-100</v>
       </c>
       <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-300</v>
       </c>
       <c r="M21" s="3">
         <v>-300</v>
@@ -1334,19 +1371,22 @@
         <v>-300</v>
       </c>
       <c r="O21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1413,40 +1456,43 @@
         <v>-200</v>
       </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-400</v>
       </c>
       <c r="N23" s="3">
         <v>-400</v>
       </c>
       <c r="O23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1563,90 +1615,96 @@
         <v>-200</v>
       </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-400</v>
       </c>
       <c r="N26" s="3">
         <v>-400</v>
       </c>
       <c r="O26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
-        <v>-200</v>
-      </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-500</v>
       </c>
       <c r="Q27" s="3">
         <v>-500</v>
       </c>
       <c r="R27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1706,11 +1767,11 @@
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1718,8 +1779,8 @@
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1863,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1881,10 +1951,10 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -1895,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-500</v>
       </c>
       <c r="Q33" s="3">
         <v>-500</v>
       </c>
       <c r="R33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-500</v>
       </c>
       <c r="Q35" s="3">
         <v>-500</v>
       </c>
       <c r="R35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2173,25 +2260,28 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,22 +2330,25 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
-      </c>
-      <c r="G43" s="3">
-        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>300</v>
@@ -2264,11 +2357,11 @@
         <v>300</v>
       </c>
       <c r="J43" s="3">
+        <v>300</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
@@ -2276,22 +2369,25 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2305,13 +2401,13 @@
         <v>200</v>
       </c>
       <c r="G44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H44" s="3">
         <v>300</v>
       </c>
       <c r="I44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J44" s="3">
         <v>200</v>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2358,11 +2457,11 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
@@ -2390,16 +2489,19 @@
       <c r="R45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
-      </c>
-      <c r="E46" s="3">
-        <v>700</v>
       </c>
       <c r="F46" s="3">
         <v>700</v>
@@ -2408,40 +2510,43 @@
         <v>700</v>
       </c>
       <c r="H46" s="3">
+        <v>700</v>
+      </c>
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
-      </c>
-      <c r="L46" s="3">
-        <v>600</v>
       </c>
       <c r="M46" s="3">
         <v>600</v>
       </c>
       <c r="N46" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="O46" s="3">
         <v>900</v>
       </c>
       <c r="P46" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,16 +2595,19 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>400</v>
@@ -2517,7 +2625,7 @@
         <v>400</v>
       </c>
       <c r="K48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L48" s="3">
         <v>500</v>
@@ -2535,13 +2643,16 @@
         <v>500</v>
       </c>
       <c r="Q48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2564,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
         <v>300</v>
@@ -2576,13 +2687,13 @@
         <v>300</v>
       </c>
       <c r="N49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O49" s="3">
         <v>400</v>
       </c>
       <c r="P49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q49" s="3">
         <v>500</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,13 +2913,16 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E54" s="3">
         <v>1100</v>
@@ -2808,40 +2934,43 @@
         <v>1100</v>
       </c>
       <c r="H54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I54" s="3">
         <v>1200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1300</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1400</v>
       </c>
       <c r="M54" s="3">
         <v>1400</v>
       </c>
       <c r="N54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O54" s="3">
         <v>1700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2100</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1500</v>
       </c>
       <c r="R54" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,19 +3010,20 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
@@ -2901,7 +3032,7 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -2916,27 +3047,30 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
-        <v>100</v>
-      </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E58" s="3">
         <v>600</v>
@@ -2945,13 +3079,13 @@
         <v>600</v>
       </c>
       <c r="G58" s="3">
+        <v>600</v>
+      </c>
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>500</v>
       </c>
       <c r="J58" s="3">
         <v>500</v>
@@ -2960,10 +3094,10 @@
         <v>500</v>
       </c>
       <c r="L58" s="3">
+        <v>500</v>
+      </c>
+      <c r="M58" s="3">
         <v>400</v>
-      </c>
-      <c r="M58" s="3">
-        <v>300</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
@@ -2975,13 +3109,16 @@
         <v>300</v>
       </c>
       <c r="Q58" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="R58" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2989,49 +3126,52 @@
         <v>1700</v>
       </c>
       <c r="E59" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F59" s="3">
         <v>1600</v>
       </c>
       <c r="G59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1200</v>
       </c>
       <c r="J59" s="3">
         <v>1200</v>
       </c>
       <c r="K59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3039,49 +3179,52 @@
         <v>2600</v>
       </c>
       <c r="E60" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="F60" s="3">
         <v>2400</v>
       </c>
       <c r="G60" s="3">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="H60" s="3">
         <v>2100</v>
       </c>
       <c r="I60" s="3">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="J60" s="3">
         <v>1800</v>
       </c>
       <c r="K60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,28 +3273,31 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
+      <c r="E62" s="3">
+        <v>100</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -3162,8 +3308,8 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3339,49 +3497,52 @@
         <v>2700</v>
       </c>
       <c r="E66" s="3">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="F66" s="3">
         <v>2400</v>
       </c>
       <c r="G66" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="H66" s="3">
         <v>2200</v>
       </c>
       <c r="I66" s="3">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="J66" s="3">
         <v>1800</v>
       </c>
       <c r="K66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L66" s="3">
         <v>1500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-30100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-29800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-29600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-29200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-29000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-28700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-28200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-27900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-27500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-27000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-26600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-26000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-25600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-25200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-24700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-1000</v>
       </c>
       <c r="H76" s="3">
         <v>-1000</v>
       </c>
       <c r="I76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J76" s="3">
         <v>-800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3">
-        <v>100</v>
-      </c>
       <c r="N76" s="3">
+        <v>100</v>
+      </c>
+      <c r="O76" s="3">
         <v>400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>800</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
       <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-500</v>
       </c>
       <c r="Q81" s="3">
         <v>-500</v>
       </c>
       <c r="R81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4058,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4334,13 +4551,13 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -4352,31 +4569,34 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4431,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
@@ -4440,13 +4661,16 @@
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4581,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
@@ -4590,13 +4820,16 @@
         <v>-100</v>
       </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4827,11 +5073,11 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -4839,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
@@ -4851,22 +5097,25 @@
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>800</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4945,24 +5197,27 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
-      </c>
-      <c r="O102" s="3">
-        <v>500</v>
       </c>
       <c r="P102" s="3">
         <v>500</v>
       </c>
       <c r="Q102" s="3">
+        <v>500</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VYCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>VYCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,114 +665,118 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
-      </c>
-      <c r="L8" s="3">
-        <v>300</v>
       </c>
       <c r="M8" s="3">
         <v>300</v>
@@ -781,22 +785,25 @@
         <v>300</v>
       </c>
       <c r="O8" s="3">
+        <v>300</v>
+      </c>
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
-      </c>
-      <c r="R8" s="3">
-        <v>300</v>
       </c>
       <c r="S8" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -831,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
@@ -840,7 +847,7 @@
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
@@ -848,61 +855,67 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
-      </c>
-      <c r="L10" s="3">
-        <v>300</v>
       </c>
       <c r="M10" s="3">
         <v>300</v>
       </c>
       <c r="N10" s="3">
+        <v>300</v>
+      </c>
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
-      </c>
-      <c r="R10" s="3">
-        <v>300</v>
       </c>
       <c r="S10" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -957,11 +971,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>8</v>
@@ -969,14 +983,17 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,11 +1059,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1051,11 +1071,11 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>300</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1063,8 +1083,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1117,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3">
         <v>100</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,22 +1178,23 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>500</v>
       </c>
       <c r="H17" s="3">
         <v>500</v>
@@ -1176,37 +1203,40 @@
         <v>500</v>
       </c>
       <c r="J17" s="3">
+        <v>500</v>
+      </c>
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
-      </c>
-      <c r="M17" s="3">
-        <v>600</v>
       </c>
       <c r="N17" s="3">
         <v>600</v>
       </c>
       <c r="O17" s="3">
+        <v>600</v>
+      </c>
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1223,22 +1253,22 @@
         <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-300</v>
       </c>
       <c r="N18" s="3">
         <v>-300</v>
@@ -1247,19 +1277,22 @@
         <v>-300</v>
       </c>
       <c r="P18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1318,11 +1352,11 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,31 +1378,31 @@
         <v>-200</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-200</v>
       </c>
       <c r="G21" s="3">
         <v>-200</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-300</v>
       </c>
       <c r="N21" s="3">
         <v>-300</v>
@@ -1374,19 +1411,22 @@
         <v>-300</v>
       </c>
       <c r="P21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1456,43 +1499,46 @@
         <v>-200</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-400</v>
       </c>
       <c r="O23" s="3">
         <v>-400</v>
       </c>
       <c r="P23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1615,96 +1667,102 @@
         <v>-200</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-400</v>
       </c>
       <c r="O26" s="3">
         <v>-400</v>
       </c>
       <c r="P26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-500</v>
       </c>
       <c r="R27" s="3">
         <v>-500</v>
       </c>
       <c r="S27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1767,24 +1828,24 @@
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1954,10 +2024,10 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-500</v>
       </c>
       <c r="R33" s="3">
         <v>-500</v>
       </c>
       <c r="S33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-500</v>
       </c>
       <c r="R35" s="3">
         <v>-500</v>
       </c>
       <c r="S35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2263,25 +2350,28 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2342,16 +2435,16 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>300</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
@@ -2360,11 +2453,11 @@
         <v>300</v>
       </c>
       <c r="K43" s="3">
+        <v>300</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
@@ -2372,22 +2465,25 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
-        <v>100</v>
-      </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2404,13 +2500,13 @@
         <v>200</v>
       </c>
       <c r="H44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I44" s="3">
         <v>300</v>
       </c>
       <c r="J44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2460,11 +2559,11 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
@@ -2492,19 +2591,22 @@
       <c r="S45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
-      </c>
-      <c r="F46" s="3">
-        <v>700</v>
       </c>
       <c r="G46" s="3">
         <v>700</v>
@@ -2513,40 +2615,43 @@
         <v>700</v>
       </c>
       <c r="I46" s="3">
+        <v>700</v>
+      </c>
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
-      </c>
-      <c r="M46" s="3">
-        <v>600</v>
       </c>
       <c r="N46" s="3">
         <v>600</v>
       </c>
       <c r="O46" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="P46" s="3">
         <v>900</v>
       </c>
       <c r="Q46" s="3">
+        <v>900</v>
+      </c>
+      <c r="R46" s="3">
         <v>1100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2607,10 +2715,10 @@
         <v>500</v>
       </c>
       <c r="E48" s="3">
+        <v>500</v>
+      </c>
+      <c r="F48" s="3">
         <v>600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>400</v>
       </c>
       <c r="G48" s="3">
         <v>400</v>
@@ -2628,7 +2736,7 @@
         <v>400</v>
       </c>
       <c r="L48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M48" s="3">
         <v>500</v>
@@ -2646,13 +2754,16 @@
         <v>500</v>
       </c>
       <c r="R48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2678,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L49" s="3">
         <v>300</v>
@@ -2690,13 +2801,13 @@
         <v>300</v>
       </c>
       <c r="O49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P49" s="3">
         <v>400</v>
       </c>
       <c r="Q49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R49" s="3">
         <v>500</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2925,7 +3051,7 @@
         <v>1000</v>
       </c>
       <c r="E54" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F54" s="3">
         <v>1100</v>
@@ -2937,40 +3063,43 @@
         <v>1100</v>
       </c>
       <c r="I54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J54" s="3">
         <v>1200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1300</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1400</v>
       </c>
       <c r="N54" s="3">
         <v>1400</v>
       </c>
       <c r="O54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P54" s="3">
         <v>1700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2100</v>
-      </c>
-      <c r="R54" s="3">
-        <v>1500</v>
       </c>
       <c r="S54" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,22 +3141,23 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -3035,7 +3166,7 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -3050,30 +3181,33 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
-        <v>100</v>
-      </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
-      </c>
-      <c r="E58" s="3">
-        <v>600</v>
       </c>
       <c r="F58" s="3">
         <v>600</v>
@@ -3082,13 +3216,13 @@
         <v>600</v>
       </c>
       <c r="H58" s="3">
+        <v>600</v>
+      </c>
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>500</v>
       </c>
       <c r="K58" s="3">
         <v>500</v>
@@ -3097,10 +3231,10 @@
         <v>500</v>
       </c>
       <c r="M58" s="3">
+        <v>500</v>
+      </c>
+      <c r="N58" s="3">
         <v>400</v>
-      </c>
-      <c r="N58" s="3">
-        <v>300</v>
       </c>
       <c r="O58" s="3">
         <v>300</v>
@@ -3112,119 +3246,128 @@
         <v>300</v>
       </c>
       <c r="R58" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="S58" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="E59" s="3">
         <v>1700</v>
       </c>
       <c r="F59" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G59" s="3">
         <v>1600</v>
       </c>
       <c r="H59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1200</v>
       </c>
       <c r="K59" s="3">
         <v>1200</v>
       </c>
       <c r="L59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="E60" s="3">
         <v>2600</v>
       </c>
       <c r="F60" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="G60" s="3">
         <v>2400</v>
       </c>
       <c r="H60" s="3">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="I60" s="3">
         <v>2100</v>
       </c>
       <c r="J60" s="3">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="K60" s="3">
         <v>1800</v>
       </c>
       <c r="L60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3287,20 +3433,20 @@
       <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
+      <c r="F62" s="3">
+        <v>100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -3311,8 +3457,8 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="E66" s="3">
         <v>2700</v>
       </c>
       <c r="F66" s="3">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="G66" s="3">
         <v>2400</v>
       </c>
       <c r="H66" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="I66" s="3">
         <v>2200</v>
       </c>
       <c r="J66" s="3">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="K66" s="3">
         <v>1800</v>
       </c>
       <c r="L66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M66" s="3">
         <v>1500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-30400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-30100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-29800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-29600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-29200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-29000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-28700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-28200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-27900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-27500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-27000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-26600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-25600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-25200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-24700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-1000</v>
       </c>
       <c r="I76" s="3">
         <v>-1000</v>
       </c>
       <c r="J76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K76" s="3">
         <v>-800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
-        <v>100</v>
-      </c>
       <c r="O76" s="3">
+        <v>100</v>
+      </c>
+      <c r="P76" s="3">
         <v>400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>800</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
       <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-500</v>
       </c>
       <c r="R81" s="3">
         <v>-500</v>
       </c>
       <c r="S81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4260,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,25 +4756,28 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -4572,31 +4789,34 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-200</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
       </c>
       <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4655,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
@@ -4664,13 +4885,16 @@
         <v>-100</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4814,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
@@ -4823,13 +5053,16 @@
         <v>-100</v>
       </c>
       <c r="R94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,13 +5304,16 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
@@ -5076,7 +5322,7 @@
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -5088,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
@@ -5100,22 +5346,25 @@
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>800</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5200,24 +5452,27 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
       </c>
       <c r="O102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
-      </c>
-      <c r="P102" s="3">
-        <v>500</v>
       </c>
       <c r="Q102" s="3">
         <v>500</v>
       </c>
       <c r="R102" s="3">
+        <v>500</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VYCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>VYCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,19 +762,19 @@
         <v>300</v>
       </c>
       <c r="E8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F8" s="3">
         <v>300</v>
       </c>
       <c r="G8" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H8" s="3">
         <v>300</v>
       </c>
       <c r="I8" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J8" s="3">
         <v>300</v>
@@ -776,34 +783,40 @@
         <v>400</v>
       </c>
       <c r="L8" s="3">
+        <v>300</v>
+      </c>
+      <c r="M8" s="3">
+        <v>400</v>
+      </c>
+      <c r="N8" s="3">
         <v>500</v>
-      </c>
-      <c r="M8" s="3">
-        <v>300</v>
-      </c>
-      <c r="N8" s="3">
-        <v>300</v>
       </c>
       <c r="O8" s="3">
         <v>300</v>
       </c>
       <c r="P8" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q8" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="R8" s="3">
         <v>400</v>
       </c>
       <c r="S8" s="3">
+        <v>700</v>
+      </c>
+      <c r="T8" s="3">
+        <v>400</v>
+      </c>
+      <c r="U8" s="3">
         <v>300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -841,25 +854,31 @@
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,19 +886,19 @@
         <v>300</v>
       </c>
       <c r="E10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F10" s="3">
         <v>300</v>
       </c>
       <c r="G10" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
       </c>
       <c r="I10" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
@@ -888,34 +907,40 @@
         <v>400</v>
       </c>
       <c r="L10" s="3">
+        <v>300</v>
+      </c>
+      <c r="M10" s="3">
+        <v>400</v>
+      </c>
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
-      </c>
-      <c r="N10" s="3">
-        <v>300</v>
-      </c>
-      <c r="O10" s="3">
-        <v>200</v>
       </c>
       <c r="P10" s="3">
         <v>300</v>
       </c>
       <c r="Q10" s="3">
+        <v>200</v>
+      </c>
+      <c r="R10" s="3">
+        <v>300</v>
+      </c>
+      <c r="S10" s="3">
         <v>600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,13 +961,15 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
+      <c r="D12" s="3">
+        <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
@@ -974,26 +1001,32 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>8</v>
+      <c r="Q12" s="3">
+        <v>0</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1062,35 +1101,35 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>300</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>300</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1143,10 +1188,10 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="3">
         <v>100</v>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>100</v>
+      </c>
+      <c r="V15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1230,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1188,55 +1241,61 @@
         <v>500</v>
       </c>
       <c r="E17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>500</v>
       </c>
       <c r="G17" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="H17" s="3">
         <v>500</v>
       </c>
       <c r="I17" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J17" s="3">
         <v>500</v>
       </c>
       <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
+        <v>500</v>
+      </c>
+      <c r="M17" s="3">
         <v>900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>700</v>
       </c>
       <c r="N17" s="3">
         <v>600</v>
       </c>
       <c r="O17" s="3">
+        <v>700</v>
+      </c>
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
-        <v>700</v>
-      </c>
       <c r="Q17" s="3">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="R17" s="3">
         <v>700</v>
       </c>
       <c r="S17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T17" s="3">
+        <v>700</v>
+      </c>
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1256,43 +1315,49 @@
         <v>-200</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-300</v>
       </c>
       <c r="P18" s="3">
         <v>-300</v>
       </c>
       <c r="Q18" s="3">
-        <v>-700</v>
+        <v>-300</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
       </c>
       <c r="S18" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="T18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1355,22 +1422,28 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1381,22 +1454,22 @@
         <v>-200</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G21" s="3">
         <v>-200</v>
       </c>
       <c r="H21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-400</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
@@ -1405,28 +1478,34 @@
         <v>-400</v>
       </c>
       <c r="N21" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="O21" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="P21" s="3">
         <v>-300</v>
       </c>
       <c r="Q21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S21" s="3">
         <v>-500</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-400</v>
       </c>
       <c r="T21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,8 +1560,14 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1505,40 +1590,46 @@
         <v>-100</v>
       </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-300</v>
       </c>
       <c r="O23" s="3">
         <v>-400</v>
       </c>
       <c r="P23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S23" s="3">
         <v>-700</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-500</v>
       </c>
       <c r="T23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1746,14 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1673,40 +1776,46 @@
         <v>-100</v>
       </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-300</v>
       </c>
       <c r="O26" s="3">
         <v>-400</v>
       </c>
       <c r="P26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S26" s="3">
         <v>-700</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-500</v>
       </c>
       <c r="T26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1717,52 +1826,58 @@
         <v>-200</v>
       </c>
       <c r="F27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
       </c>
       <c r="H27" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K27" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-300</v>
       </c>
       <c r="M27" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="N27" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="O27" s="3">
         <v>-400</v>
       </c>
       <c r="P27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1831,27 +1952,27 @@
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2027,13 +2166,13 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2041,8 +2180,14 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2053,52 +2198,58 @@
         <v>-200</v>
       </c>
       <c r="F33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
       </c>
       <c r="H33" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I33" s="3">
         <v>-200</v>
       </c>
       <c r="J33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K33" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="L33" s="3">
         <v>-300</v>
       </c>
       <c r="M33" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="N33" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="O33" s="3">
         <v>-400</v>
       </c>
       <c r="P33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2304,14 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2165,113 +2322,125 @@
         <v>-200</v>
       </c>
       <c r="F35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
       </c>
       <c r="H35" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I35" s="3">
         <v>-200</v>
       </c>
       <c r="J35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K35" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="L35" s="3">
         <v>-300</v>
       </c>
       <c r="M35" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="N35" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="O35" s="3">
         <v>-400</v>
       </c>
       <c r="P35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,16 +2485,18 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -2353,25 +2526,31 @@
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>600</v>
       </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
-      <c r="T41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2435,13 +2620,13 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
@@ -2450,25 +2635,25 @@
         <v>300</v>
       </c>
       <c r="J43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
       </c>
       <c r="L43" s="3">
+        <v>300</v>
+      </c>
+      <c r="M43" s="3">
+        <v>300</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
@@ -2480,10 +2665,16 @@
         <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2503,16 +2694,16 @@
         <v>200</v>
       </c>
       <c r="I44" s="3">
+        <v>200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>200</v>
+      </c>
+      <c r="K44" s="3">
         <v>300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>300</v>
-      </c>
-      <c r="K44" s="3">
-        <v>200</v>
-      </c>
-      <c r="L44" s="3">
-        <v>200</v>
       </c>
       <c r="M44" s="3">
         <v>200</v>
@@ -2538,8 +2729,14 @@
       <c r="T44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>200</v>
+      </c>
+      <c r="V44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2562,14 +2759,14 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
-        <v>100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
@@ -2594,64 +2791,76 @@
       <c r="T45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
-      </c>
-      <c r="E46" s="3">
-        <v>400</v>
       </c>
       <c r="F46" s="3">
         <v>500</v>
       </c>
       <c r="G46" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="H46" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="I46" s="3">
         <v>700</v>
       </c>
       <c r="J46" s="3">
+        <v>700</v>
+      </c>
+      <c r="K46" s="3">
+        <v>700</v>
+      </c>
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2718,13 +2933,13 @@
         <v>500</v>
       </c>
       <c r="F48" s="3">
+        <v>500</v>
+      </c>
+      <c r="G48" s="3">
+        <v>500</v>
+      </c>
+      <c r="H48" s="3">
         <v>600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>400</v>
       </c>
       <c r="I48" s="3">
         <v>400</v>
@@ -2739,10 +2954,10 @@
         <v>400</v>
       </c>
       <c r="M48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O48" s="3">
         <v>500</v>
@@ -2757,13 +2972,19 @@
         <v>500</v>
       </c>
       <c r="S48" s="3">
+        <v>500</v>
+      </c>
+      <c r="T48" s="3">
+        <v>500</v>
+      </c>
+      <c r="U48" s="3">
         <v>400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2792,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M49" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N49" s="3">
         <v>300</v>
@@ -2804,22 +3025,28 @@
         <v>300</v>
       </c>
       <c r="P49" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>300</v>
+      </c>
+      <c r="R49" s="3">
         <v>400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>400</v>
-      </c>
-      <c r="R49" s="3">
-        <v>500</v>
-      </c>
-      <c r="S49" s="3">
-        <v>500</v>
       </c>
       <c r="T49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>500</v>
+      </c>
+      <c r="V49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3287,14 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3054,10 +3305,10 @@
         <v>1000</v>
       </c>
       <c r="F54" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G54" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H54" s="3">
         <v>1100</v>
@@ -3066,40 +3317,46 @@
         <v>1100</v>
       </c>
       <c r="J54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L54" s="3">
         <v>1200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1000</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1300</v>
       </c>
       <c r="N54" s="3">
         <v>1400</v>
       </c>
       <c r="O54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P54" s="3">
         <v>1400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R54" s="3">
         <v>1700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,37 +3401,39 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -3184,42 +3445,48 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
-        <v>100</v>
-      </c>
-      <c r="R57" s="3">
-        <v>100</v>
-      </c>
       <c r="S57" s="3">
+        <v>100</v>
+      </c>
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E58" s="3">
         <v>700</v>
       </c>
       <c r="F58" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="G58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H58" s="3">
         <v>600</v>
       </c>
       <c r="I58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J58" s="3">
         <v>600</v>
@@ -3228,19 +3495,19 @@
         <v>500</v>
       </c>
       <c r="L58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M58" s="3">
         <v>500</v>
       </c>
       <c r="N58" s="3">
+        <v>500</v>
+      </c>
+      <c r="O58" s="3">
+        <v>500</v>
+      </c>
+      <c r="P58" s="3">
         <v>400</v>
-      </c>
-      <c r="O58" s="3">
-        <v>300</v>
-      </c>
-      <c r="P58" s="3">
-        <v>300</v>
       </c>
       <c r="Q58" s="3">
         <v>300</v>
@@ -3249,133 +3516,151 @@
         <v>300</v>
       </c>
       <c r="S58" s="3">
+        <v>300</v>
+      </c>
+      <c r="T58" s="3">
+        <v>300</v>
+      </c>
+      <c r="U58" s="3">
         <v>600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>900</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1100</v>
       </c>
       <c r="O59" s="3">
         <v>900</v>
       </c>
       <c r="P59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>900</v>
+      </c>
+      <c r="R59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F60" s="3">
         <v>2800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1000</v>
       </c>
       <c r="R60" s="3">
         <v>1300</v>
       </c>
       <c r="S60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U60" s="3">
         <v>1500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3422,8 +3707,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3436,23 +3727,23 @@
       <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G62" s="3">
+        <v>100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
@@ -3460,11 +3751,11 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F66" s="3">
         <v>2900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1000</v>
       </c>
       <c r="R66" s="3">
         <v>1300</v>
       </c>
       <c r="S66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U66" s="3">
         <v>1500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-30700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-30400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-30100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-29800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-29600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-29200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-29000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-28700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-28200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-27900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-27500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-27000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-26600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-26000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-25600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-25200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-24700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
-        <v>100</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
+        <v>100</v>
+      </c>
+      <c r="R76" s="3">
         <v>400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>800</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4661,81 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4357,52 +4746,58 @@
         <v>-200</v>
       </c>
       <c r="F81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
       </c>
       <c r="H81" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I81" s="3">
         <v>-200</v>
       </c>
       <c r="J81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K81" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="L81" s="3">
         <v>-300</v>
       </c>
       <c r="M81" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="N81" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="O81" s="3">
         <v>-400</v>
       </c>
       <c r="P81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4462,10 +4859,10 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>100</v>
+      </c>
+      <c r="V83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,31 +5186,37 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -4792,13 +5225,13 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
@@ -4807,16 +5240,22 @@
         <v>-200</v>
       </c>
       <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4879,22 +5320,28 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
       </c>
       <c r="S91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5047,22 +5506,28 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R94" s="3">
         <v>-100</v>
       </c>
       <c r="S94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,25 +5792,31 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -5337,10 +5828,10 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
@@ -5349,22 +5840,28 @@
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>800</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5916,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5455,24 +5958,30 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VYCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>VYCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,105 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E8" s="3">
         <v>300</v>
@@ -768,10 +772,10 @@
         <v>300</v>
       </c>
       <c r="G8" s="3">
+        <v>300</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>300</v>
       </c>
       <c r="I8" s="3">
         <v>300</v>
@@ -780,19 +784,19 @@
         <v>300</v>
       </c>
       <c r="K8" s="3">
+        <v>300</v>
+      </c>
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>500</v>
-      </c>
-      <c r="O8" s="3">
-        <v>300</v>
       </c>
       <c r="P8" s="3">
         <v>300</v>
@@ -801,22 +805,25 @@
         <v>300</v>
       </c>
       <c r="R8" s="3">
+        <v>300</v>
+      </c>
+      <c r="S8" s="3">
         <v>400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>400</v>
-      </c>
-      <c r="U8" s="3">
-        <v>300</v>
       </c>
       <c r="V8" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -860,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
@@ -869,7 +876,7 @@
         <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
         <v>0</v>
@@ -877,13 +884,16 @@
       <c r="V9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E10" s="3">
         <v>300</v>
@@ -892,10 +902,10 @@
         <v>300</v>
       </c>
       <c r="G10" s="3">
+        <v>300</v>
+      </c>
+      <c r="H10" s="3">
         <v>200</v>
-      </c>
-      <c r="H10" s="3">
-        <v>300</v>
       </c>
       <c r="I10" s="3">
         <v>300</v>
@@ -904,43 +914,46 @@
         <v>300</v>
       </c>
       <c r="K10" s="3">
+        <v>300</v>
+      </c>
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
-      </c>
-      <c r="O10" s="3">
-        <v>300</v>
       </c>
       <c r="P10" s="3">
         <v>300</v>
       </c>
       <c r="Q10" s="3">
+        <v>300</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>400</v>
-      </c>
-      <c r="U10" s="3">
-        <v>300</v>
       </c>
       <c r="V10" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,16 +976,17 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
+      <c r="E12" s="3">
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>8</v>
@@ -1007,11 +1021,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>8</v>
@@ -1019,14 +1033,17 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U12" s="3">
-        <v>0</v>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1107,11 +1127,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1119,11 +1139,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1131,8 +1151,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1194,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R15" s="3">
         <v>100</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1247,16 +1274,16 @@
         <v>500</v>
       </c>
       <c r="G17" s="3">
+        <v>500</v>
+      </c>
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>500</v>
@@ -1265,42 +1292,45 @@
         <v>500</v>
       </c>
       <c r="M17" s="3">
+        <v>500</v>
+      </c>
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
-      </c>
-      <c r="P17" s="3">
-        <v>600</v>
       </c>
       <c r="Q17" s="3">
         <v>600</v>
       </c>
       <c r="R17" s="3">
+        <v>600</v>
+      </c>
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>-200</v>
@@ -1315,28 +1345,28 @@
         <v>-200</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-300</v>
       </c>
       <c r="Q18" s="3">
         <v>-300</v>
@@ -1345,19 +1375,22 @@
         <v>-300</v>
       </c>
       <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1428,11 +1462,11 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1442,13 +1476,16 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3">
         <v>-200</v>
@@ -1460,31 +1497,31 @@
         <v>-200</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-100</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
       </c>
       <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-300</v>
       </c>
       <c r="Q21" s="3">
         <v>-300</v>
@@ -1493,19 +1530,22 @@
         <v>-300</v>
       </c>
       <c r="S21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,13 +1606,16 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>-200</v>
@@ -1587,49 +1630,52 @@
         <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-400</v>
       </c>
       <c r="R23" s="3">
         <v>-400</v>
       </c>
       <c r="S23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,13 +1801,16 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
@@ -1773,111 +1825,117 @@
         <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-400</v>
       </c>
       <c r="R26" s="3">
         <v>-400</v>
       </c>
       <c r="S26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-500</v>
       </c>
       <c r="U27" s="3">
         <v>-500</v>
       </c>
       <c r="V27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1959,23 +2020,23 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-100</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2172,10 +2242,10 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-500</v>
       </c>
       <c r="U33" s="3">
         <v>-500</v>
       </c>
       <c r="V33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-500</v>
       </c>
       <c r="U35" s="3">
         <v>-500</v>
       </c>
       <c r="V35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,19 +2573,20 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
@@ -2532,25 +2619,28 @@
         <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>600</v>
       </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,34 +2701,37 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
       <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>300</v>
       </c>
       <c r="L43" s="3">
         <v>300</v>
@@ -2647,11 +2740,11 @@
         <v>300</v>
       </c>
       <c r="N43" s="3">
+        <v>300</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
@@ -2659,22 +2752,25 @@
         <v>100</v>
       </c>
       <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
-        <v>100</v>
-      </c>
       <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
-        <v>100</v>
-      </c>
       <c r="V43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2700,13 +2796,13 @@
         <v>200</v>
       </c>
       <c r="K44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L44" s="3">
         <v>300</v>
       </c>
       <c r="M44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N44" s="3">
         <v>200</v>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2765,11 +2864,11 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
-        <v>100</v>
-      </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
@@ -2797,28 +2896,31 @@
       <c r="V45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
-      </c>
-      <c r="E46" s="3">
-        <v>500</v>
       </c>
       <c r="F46" s="3">
         <v>500</v>
       </c>
       <c r="G46" s="3">
+        <v>500</v>
+      </c>
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
-      </c>
-      <c r="I46" s="3">
-        <v>700</v>
       </c>
       <c r="J46" s="3">
         <v>700</v>
@@ -2827,40 +2929,43 @@
         <v>700</v>
       </c>
       <c r="L46" s="3">
+        <v>700</v>
+      </c>
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
-      </c>
-      <c r="P46" s="3">
-        <v>600</v>
       </c>
       <c r="Q46" s="3">
         <v>600</v>
       </c>
       <c r="R46" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="S46" s="3">
         <v>900</v>
       </c>
       <c r="T46" s="3">
+        <v>900</v>
+      </c>
+      <c r="U46" s="3">
         <v>1100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2939,10 +3047,10 @@
         <v>500</v>
       </c>
       <c r="H48" s="3">
+        <v>500</v>
+      </c>
+      <c r="I48" s="3">
         <v>600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>400</v>
       </c>
       <c r="J48" s="3">
         <v>400</v>
@@ -2960,7 +3068,7 @@
         <v>400</v>
       </c>
       <c r="O48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P48" s="3">
         <v>500</v>
@@ -2978,13 +3086,16 @@
         <v>500</v>
       </c>
       <c r="U48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3019,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O49" s="3">
         <v>300</v>
@@ -3031,13 +3142,13 @@
         <v>300</v>
       </c>
       <c r="R49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S49" s="3">
         <v>400</v>
       </c>
       <c r="T49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="U49" s="3">
         <v>500</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,13 +3416,16 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E54" s="3">
         <v>1000</v>
@@ -3311,7 +3437,7 @@
         <v>1000</v>
       </c>
       <c r="H54" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I54" s="3">
         <v>1100</v>
@@ -3323,40 +3449,43 @@
         <v>1100</v>
       </c>
       <c r="L54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M54" s="3">
         <v>1200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1300</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1400</v>
       </c>
       <c r="Q54" s="3">
         <v>1400</v>
       </c>
       <c r="R54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S54" s="3">
         <v>1700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2100</v>
-      </c>
-      <c r="U54" s="3">
-        <v>1500</v>
       </c>
       <c r="V54" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3415,19 +3546,19 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -3436,7 +3567,7 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -3451,22 +3582,25 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
-        <v>100</v>
-      </c>
       <c r="T57" s="3">
         <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3477,13 +3611,13 @@
         <v>700</v>
       </c>
       <c r="F58" s="3">
+        <v>700</v>
+      </c>
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>600</v>
       </c>
       <c r="I58" s="3">
         <v>600</v>
@@ -3492,13 +3626,13 @@
         <v>600</v>
       </c>
       <c r="K58" s="3">
+        <v>600</v>
+      </c>
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
-      </c>
-      <c r="M58" s="3">
-        <v>500</v>
       </c>
       <c r="N58" s="3">
         <v>500</v>
@@ -3507,10 +3641,10 @@
         <v>500</v>
       </c>
       <c r="P58" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q58" s="3">
         <v>400</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>300</v>
       </c>
       <c r="R58" s="3">
         <v>300</v>
@@ -3522,13 +3656,16 @@
         <v>300</v>
       </c>
       <c r="U58" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="V58" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3536,61 +3673,64 @@
         <v>2100</v>
       </c>
       <c r="E59" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="F59" s="3">
         <v>1900</v>
       </c>
       <c r="G59" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="H59" s="3">
         <v>1700</v>
       </c>
       <c r="I59" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="J59" s="3">
         <v>1600</v>
       </c>
       <c r="K59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1200</v>
       </c>
       <c r="N59" s="3">
         <v>1200</v>
       </c>
       <c r="O59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3598,61 +3738,64 @@
         <v>3000</v>
       </c>
       <c r="E60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2600</v>
       </c>
       <c r="H60" s="3">
         <v>2600</v>
       </c>
       <c r="I60" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="J60" s="3">
         <v>2400</v>
       </c>
       <c r="K60" s="3">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="L60" s="3">
         <v>2100</v>
       </c>
       <c r="M60" s="3">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="N60" s="3">
         <v>1800</v>
       </c>
       <c r="O60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3663,7 +3806,7 @@
         <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3733,20 +3879,20 @@
       <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+      <c r="I62" s="3">
+        <v>100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
@@ -3757,8 +3903,8 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,8 +4116,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3970,61 +4128,64 @@
         <v>3200</v>
       </c>
       <c r="E66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F66" s="3">
         <v>3000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2900</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2700</v>
       </c>
       <c r="H66" s="3">
         <v>2700</v>
       </c>
       <c r="I66" s="3">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="J66" s="3">
         <v>2400</v>
       </c>
       <c r="K66" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="L66" s="3">
         <v>2200</v>
       </c>
       <c r="M66" s="3">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="N66" s="3">
         <v>1800</v>
       </c>
       <c r="O66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P66" s="3">
         <v>1500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-31300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-30900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-30700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-30400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-30100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-29800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-29600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-29200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-29000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-28700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-28200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-27900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-27500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-27000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-26600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-26000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-25600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-25200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-24700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-1000</v>
       </c>
       <c r="L76" s="3">
         <v>-1000</v>
       </c>
       <c r="M76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N76" s="3">
         <v>-800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="Q76" s="3">
-        <v>100</v>
-      </c>
       <c r="R76" s="3">
+        <v>100</v>
+      </c>
+      <c r="S76" s="3">
         <v>400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>800</v>
       </c>
-      <c r="U76" s="3">
-        <v>0</v>
-      </c>
       <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-500</v>
       </c>
       <c r="U81" s="3">
         <v>-500</v>
       </c>
       <c r="V81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4865,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,34 +5406,37 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -5231,31 +5448,34 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-200</v>
       </c>
       <c r="T89" s="3">
         <v>-200</v>
       </c>
       <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5326,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>-100</v>
@@ -5335,13 +5556,16 @@
         <v>-100</v>
       </c>
       <c r="U91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5512,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S94" s="3">
         <v>-100</v>
@@ -5521,13 +5751,16 @@
         <v>-100</v>
       </c>
       <c r="U94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,28 +6041,31 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -5834,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
@@ -5846,22 +6092,25 @@
         <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>800</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,13 +6171,16 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -5964,24 +6216,27 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
         <v>-100</v>
       </c>
       <c r="R102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
-      </c>
-      <c r="S102" s="3">
-        <v>500</v>
       </c>
       <c r="T102" s="3">
         <v>500</v>
       </c>
       <c r="U102" s="3">
+        <v>500</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VYCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>VYCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,112 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
-      </c>
-      <c r="E8" s="3">
-        <v>300</v>
       </c>
       <c r="F8" s="3">
         <v>300</v>
@@ -775,10 +779,10 @@
         <v>300</v>
       </c>
       <c r="H8" s="3">
+        <v>300</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>300</v>
       </c>
       <c r="J8" s="3">
         <v>300</v>
@@ -787,19 +791,19 @@
         <v>300</v>
       </c>
       <c r="L8" s="3">
+        <v>300</v>
+      </c>
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>500</v>
-      </c>
-      <c r="P8" s="3">
-        <v>300</v>
       </c>
       <c r="Q8" s="3">
         <v>300</v>
@@ -808,22 +812,25 @@
         <v>300</v>
       </c>
       <c r="S8" s="3">
+        <v>300</v>
+      </c>
+      <c r="T8" s="3">
         <v>400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>400</v>
-      </c>
-      <c r="V8" s="3">
-        <v>300</v>
       </c>
       <c r="W8" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -870,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
@@ -879,7 +886,7 @@
         <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V9" s="3">
         <v>0</v>
@@ -887,16 +894,19 @@
       <c r="W9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
-      </c>
-      <c r="E10" s="3">
-        <v>300</v>
       </c>
       <c r="F10" s="3">
         <v>300</v>
@@ -905,10 +915,10 @@
         <v>300</v>
       </c>
       <c r="H10" s="3">
+        <v>300</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
-      </c>
-      <c r="I10" s="3">
-        <v>300</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
@@ -917,43 +927,46 @@
         <v>300</v>
       </c>
       <c r="L10" s="3">
+        <v>300</v>
+      </c>
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>500</v>
-      </c>
-      <c r="P10" s="3">
-        <v>300</v>
       </c>
       <c r="Q10" s="3">
         <v>300</v>
       </c>
       <c r="R10" s="3">
+        <v>300</v>
+      </c>
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>400</v>
-      </c>
-      <c r="V10" s="3">
-        <v>300</v>
       </c>
       <c r="W10" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -988,8 +1002,8 @@
       <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
+      <c r="F12" s="3">
+        <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -1024,11 +1038,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>8</v>
@@ -1036,14 +1050,17 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V12" s="3">
-        <v>0</v>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1130,11 +1150,11 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1142,11 +1162,11 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>300</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1154,8 +1174,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1220,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S15" s="3">
         <v>100</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,13 +1285,14 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>500</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
         <v>500</v>
@@ -1277,16 +1304,16 @@
         <v>500</v>
       </c>
       <c r="H17" s="3">
+        <v>500</v>
+      </c>
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>500</v>
       </c>
       <c r="L17" s="3">
         <v>500</v>
@@ -1295,45 +1322,48 @@
         <v>500</v>
       </c>
       <c r="N17" s="3">
+        <v>500</v>
+      </c>
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>600</v>
       </c>
       <c r="R17" s="3">
         <v>600</v>
       </c>
       <c r="S17" s="3">
+        <v>600</v>
+      </c>
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
@@ -1348,28 +1378,28 @@
         <v>-200</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-300</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
@@ -1378,19 +1408,22 @@
         <v>-300</v>
       </c>
       <c r="T18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,13 +1447,14 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1465,11 +1499,11 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1479,16 +1513,19 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <v>-200</v>
@@ -1500,31 +1537,31 @@
         <v>-200</v>
       </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
       <c r="K21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-100</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
       </c>
       <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-300</v>
       </c>
       <c r="R21" s="3">
         <v>-300</v>
@@ -1533,19 +1570,22 @@
         <v>-300</v>
       </c>
       <c r="T21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,8 +1649,11 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1618,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
@@ -1633,49 +1676,52 @@
         <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-400</v>
       </c>
       <c r="S23" s="3">
         <v>-400</v>
       </c>
       <c r="T23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1853,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1813,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
@@ -1828,114 +1880,120 @@
         <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-400</v>
       </c>
       <c r="S26" s="3">
         <v>-400</v>
       </c>
       <c r="T26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-500</v>
       </c>
       <c r="V27" s="3">
         <v>-500</v>
       </c>
       <c r="W27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2023,23 +2084,23 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-100</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,13 +2261,16 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2245,10 +2315,10 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-500</v>
       </c>
       <c r="V33" s="3">
         <v>-500</v>
       </c>
       <c r="W33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-500</v>
       </c>
       <c r="V35" s="3">
         <v>-500</v>
       </c>
       <c r="W35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2583,13 +2670,13 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
@@ -2622,25 +2709,28 @@
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>600</v>
       </c>
-      <c r="V41" s="3">
-        <v>100</v>
-      </c>
       <c r="W41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2713,28 +2806,28 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
-      </c>
-      <c r="L43" s="3">
-        <v>300</v>
       </c>
       <c r="M43" s="3">
         <v>300</v>
@@ -2743,11 +2836,11 @@
         <v>300</v>
       </c>
       <c r="O43" s="3">
+        <v>300</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
-        <v>100</v>
-      </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
@@ -2755,22 +2848,25 @@
         <v>100</v>
       </c>
       <c r="S43" s="3">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
-        <v>100</v>
-      </c>
       <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
         <v>200</v>
       </c>
-      <c r="V43" s="3">
-        <v>100</v>
-      </c>
       <c r="W43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2799,13 +2895,13 @@
         <v>200</v>
       </c>
       <c r="L44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M44" s="3">
         <v>300</v>
       </c>
       <c r="N44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O44" s="3">
         <v>200</v>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2867,11 +2966,11 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
-        <v>100</v>
-      </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2908,22 +3010,22 @@
         <v>600</v>
       </c>
       <c r="E46" s="3">
+        <v>600</v>
+      </c>
+      <c r="F46" s="3">
         <v>400</v>
-      </c>
-      <c r="F46" s="3">
-        <v>500</v>
       </c>
       <c r="G46" s="3">
         <v>500</v>
       </c>
       <c r="H46" s="3">
+        <v>500</v>
+      </c>
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
-      </c>
-      <c r="J46" s="3">
-        <v>700</v>
       </c>
       <c r="K46" s="3">
         <v>700</v>
@@ -2932,40 +3034,43 @@
         <v>700</v>
       </c>
       <c r="M46" s="3">
+        <v>700</v>
+      </c>
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>600</v>
       </c>
       <c r="R46" s="3">
         <v>600</v>
       </c>
       <c r="S46" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T46" s="3">
         <v>900</v>
       </c>
       <c r="U46" s="3">
+        <v>900</v>
+      </c>
+      <c r="V46" s="3">
         <v>1100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3050,10 +3158,10 @@
         <v>500</v>
       </c>
       <c r="I48" s="3">
+        <v>500</v>
+      </c>
+      <c r="J48" s="3">
         <v>600</v>
-      </c>
-      <c r="J48" s="3">
-        <v>400</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
@@ -3071,7 +3179,7 @@
         <v>400</v>
       </c>
       <c r="P48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q48" s="3">
         <v>500</v>
@@ -3089,18 +3197,21 @@
         <v>500</v>
       </c>
       <c r="V48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
@@ -3133,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P49" s="3">
         <v>300</v>
@@ -3145,13 +3256,13 @@
         <v>300</v>
       </c>
       <c r="S49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T49" s="3">
         <v>400</v>
       </c>
       <c r="U49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="V49" s="3">
         <v>500</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,16 +3542,19 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1100</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1000</v>
       </c>
       <c r="F54" s="3">
         <v>1000</v>
@@ -3440,7 +3566,7 @@
         <v>1000</v>
       </c>
       <c r="I54" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J54" s="3">
         <v>1100</v>
@@ -3452,40 +3578,43 @@
         <v>1100</v>
       </c>
       <c r="M54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N54" s="3">
         <v>1200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1400</v>
       </c>
       <c r="R54" s="3">
         <v>1400</v>
       </c>
       <c r="S54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T54" s="3">
         <v>1700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2100</v>
-      </c>
-      <c r="V54" s="3">
-        <v>1500</v>
       </c>
       <c r="W54" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3549,19 +3680,19 @@
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
@@ -3570,7 +3701,7 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -3585,22 +3716,25 @@
         <v>100</v>
       </c>
       <c r="S57" s="3">
+        <v>100</v>
+      </c>
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
-        <v>100</v>
-      </c>
       <c r="U57" s="3">
         <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3614,13 +3748,13 @@
         <v>700</v>
       </c>
       <c r="G58" s="3">
+        <v>700</v>
+      </c>
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>600</v>
       </c>
       <c r="J58" s="3">
         <v>600</v>
@@ -3629,13 +3763,13 @@
         <v>600</v>
       </c>
       <c r="L58" s="3">
+        <v>600</v>
+      </c>
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>500</v>
       </c>
       <c r="O58" s="3">
         <v>500</v>
@@ -3644,10 +3778,10 @@
         <v>500</v>
       </c>
       <c r="Q58" s="3">
+        <v>500</v>
+      </c>
+      <c r="R58" s="3">
         <v>400</v>
-      </c>
-      <c r="R58" s="3">
-        <v>300</v>
       </c>
       <c r="S58" s="3">
         <v>300</v>
@@ -3659,143 +3793,152 @@
         <v>300</v>
       </c>
       <c r="V58" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="W58" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="E59" s="3">
         <v>2100</v>
       </c>
       <c r="F59" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="G59" s="3">
         <v>1900</v>
       </c>
       <c r="H59" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="I59" s="3">
         <v>1700</v>
       </c>
       <c r="J59" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K59" s="3">
         <v>1600</v>
       </c>
       <c r="L59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1200</v>
       </c>
       <c r="O59" s="3">
         <v>1200</v>
       </c>
       <c r="P59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E60" s="3">
         <v>3000</v>
       </c>
       <c r="F60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2600</v>
       </c>
       <c r="I60" s="3">
         <v>2600</v>
       </c>
       <c r="J60" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="K60" s="3">
         <v>2400</v>
       </c>
       <c r="L60" s="3">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="M60" s="3">
         <v>2100</v>
       </c>
       <c r="N60" s="3">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="O60" s="3">
         <v>1800</v>
       </c>
       <c r="P60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3809,7 +3952,7 @@
         <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3859,13 +4002,16 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -3882,20 +4028,20 @@
       <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
+      <c r="J62" s="3">
+        <v>100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
@@ -3906,8 +4052,8 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E66" s="3">
         <v>3200</v>
       </c>
       <c r="F66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2900</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2700</v>
       </c>
       <c r="I66" s="3">
         <v>2700</v>
       </c>
       <c r="J66" s="3">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="K66" s="3">
         <v>2400</v>
       </c>
       <c r="L66" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="M66" s="3">
         <v>2200</v>
       </c>
       <c r="N66" s="3">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="O66" s="3">
         <v>1800</v>
       </c>
       <c r="P66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-31400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-31300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-30900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-30700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-30400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-30100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-29800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-29600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-29200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-29000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-28700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-28200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-27900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-27500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-27000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-26600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-26000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-25600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-25200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-24700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-1000</v>
       </c>
       <c r="M76" s="3">
         <v>-1000</v>
       </c>
       <c r="N76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O76" s="3">
         <v>-800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
-      <c r="R76" s="3">
-        <v>100</v>
-      </c>
       <c r="S76" s="3">
+        <v>100</v>
+      </c>
+      <c r="T76" s="3">
         <v>400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>800</v>
       </c>
-      <c r="V76" s="3">
-        <v>0</v>
-      </c>
       <c r="W76" s="3">
+        <v>0</v>
+      </c>
+      <c r="X76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-500</v>
       </c>
       <c r="V81" s="3">
         <v>-500</v>
       </c>
       <c r="W81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5067,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,37 +5623,40 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -5451,31 +5668,34 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-200</v>
       </c>
       <c r="U89" s="3">
         <v>-200</v>
       </c>
       <c r="V89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5550,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T91" s="3">
         <v>-100</v>
@@ -5559,13 +5780,16 @@
         <v>-100</v>
       </c>
       <c r="V91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5745,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T94" s="3">
         <v>-100</v>
@@ -5754,13 +5984,16 @@
         <v>-100</v>
       </c>
       <c r="V94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6053,22 +6299,22 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -6083,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
@@ -6095,22 +6341,25 @@
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>800</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,16 +6423,19 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -6219,24 +6471,27 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
         <v>-100</v>
       </c>
       <c r="S102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-200</v>
-      </c>
-      <c r="T102" s="3">
-        <v>500</v>
       </c>
       <c r="U102" s="3">
         <v>500</v>
       </c>
       <c r="V102" s="3">
+        <v>500</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VYCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>VYCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,111 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -770,31 +777,31 @@
         <v>300</v>
       </c>
       <c r="E8" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F8" s="3">
         <v>300</v>
       </c>
       <c r="G8" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H8" s="3">
         <v>300</v>
       </c>
       <c r="I8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J8" s="3">
         <v>300</v>
       </c>
       <c r="K8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L8" s="3">
         <v>300</v>
       </c>
       <c r="M8" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N8" s="3">
         <v>300</v>
@@ -803,34 +810,40 @@
         <v>400</v>
       </c>
       <c r="P8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>400</v>
+      </c>
+      <c r="R8" s="3">
         <v>500</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>300</v>
-      </c>
-      <c r="R8" s="3">
-        <v>300</v>
       </c>
       <c r="S8" s="3">
         <v>300</v>
       </c>
       <c r="T8" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="U8" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="V8" s="3">
         <v>400</v>
       </c>
       <c r="W8" s="3">
+        <v>700</v>
+      </c>
+      <c r="X8" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y8" s="3">
         <v>300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -880,25 +893,31 @@
         <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U9" s="3">
         <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,31 +925,31 @@
         <v>300</v>
       </c>
       <c r="E10" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F10" s="3">
         <v>300</v>
       </c>
       <c r="G10" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
       </c>
       <c r="I10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
       </c>
       <c r="K10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L10" s="3">
         <v>300</v>
       </c>
       <c r="M10" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N10" s="3">
         <v>300</v>
@@ -939,34 +958,40 @@
         <v>400</v>
       </c>
       <c r="P10" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>400</v>
+      </c>
+      <c r="R10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>300</v>
-      </c>
-      <c r="R10" s="3">
-        <v>300</v>
-      </c>
-      <c r="S10" s="3">
-        <v>200</v>
       </c>
       <c r="T10" s="3">
         <v>300</v>
       </c>
       <c r="U10" s="3">
+        <v>200</v>
+      </c>
+      <c r="V10" s="3">
+        <v>300</v>
+      </c>
+      <c r="W10" s="3">
         <v>600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,13 +1016,15 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -1005,11 +1032,11 @@
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>8</v>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>8</v>
@@ -1041,26 +1068,32 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>8</v>
+      <c r="U12" s="3">
+        <v>0</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
-      <c r="X12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,19 +1160,25 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-100</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1153,35 +1192,35 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>300</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>300</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1195,8 +1234,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1246,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="S15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U15" s="3">
         <v>100</v>
@@ -1263,8 +1308,14 @@
       <c r="X15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1337,10 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1295,10 +1348,10 @@
         <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F17" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>500</v>
@@ -1307,55 +1360,61 @@
         <v>500</v>
       </c>
       <c r="I17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J17" s="3">
         <v>500</v>
       </c>
       <c r="K17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L17" s="3">
         <v>500</v>
       </c>
       <c r="M17" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N17" s="3">
         <v>500</v>
       </c>
       <c r="O17" s="3">
+        <v>500</v>
+      </c>
+      <c r="P17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q17" s="3">
         <v>900</v>
-      </c>
-      <c r="P17" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>700</v>
       </c>
       <c r="R17" s="3">
         <v>600</v>
       </c>
       <c r="S17" s="3">
+        <v>700</v>
+      </c>
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
-        <v>700</v>
-      </c>
       <c r="U17" s="3">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="V17" s="3">
         <v>700</v>
       </c>
       <c r="W17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X17" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,13 +1422,13 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
@@ -1381,49 +1440,55 @@
         <v>-200</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-300</v>
       </c>
       <c r="T18" s="3">
         <v>-300</v>
       </c>
       <c r="U18" s="3">
-        <v>-700</v>
+        <v>-300</v>
       </c>
       <c r="V18" s="3">
         <v>-300</v>
       </c>
       <c r="W18" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="X18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1513,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1502,22 +1569,28 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,13 +1598,13 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>-200</v>
@@ -1540,22 +1613,22 @@
         <v>-200</v>
       </c>
       <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-200</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
       </c>
       <c r="N21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-400</v>
       </c>
       <c r="P21" s="3">
         <v>-100</v>
@@ -1564,28 +1637,34 @@
         <v>-400</v>
       </c>
       <c r="R21" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="S21" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="T21" s="3">
         <v>-300</v>
       </c>
       <c r="U21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W21" s="3">
         <v>-500</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-400</v>
       </c>
       <c r="X21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,22 +1731,28 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
@@ -1679,7 +1764,7 @@
         <v>-200</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L23" s="3">
         <v>-200</v>
@@ -1688,40 +1773,46 @@
         <v>-100</v>
       </c>
       <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-300</v>
       </c>
       <c r="S23" s="3">
         <v>-400</v>
       </c>
       <c r="T23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W23" s="3">
         <v>-700</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-500</v>
       </c>
       <c r="X23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1879,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,22 +1953,28 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
@@ -1883,7 +1986,7 @@
         <v>-200</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L26" s="3">
         <v>-200</v>
@@ -1892,54 +1995,60 @@
         <v>-100</v>
       </c>
       <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-300</v>
       </c>
       <c r="S26" s="3">
         <v>-400</v>
       </c>
       <c r="T26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W26" s="3">
         <v>-700</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-500</v>
       </c>
       <c r="X26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="G27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>-400</v>
@@ -1948,52 +2057,58 @@
         <v>-200</v>
       </c>
       <c r="J27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-400</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O27" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-300</v>
       </c>
       <c r="Q27" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="R27" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="S27" s="3">
         <v>-400</v>
       </c>
       <c r="T27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2087,26 +2208,26 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-100</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
@@ -2128,8 +2249,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2397,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2318,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
@@ -2332,22 +2471,28 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="G33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>-400</v>
@@ -2356,52 +2501,58 @@
         <v>-200</v>
       </c>
       <c r="J33" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
       </c>
       <c r="L33" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="M33" s="3">
         <v>-200</v>
       </c>
       <c r="N33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O33" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="P33" s="3">
         <v>-300</v>
       </c>
       <c r="Q33" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="R33" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="S33" s="3">
         <v>-400</v>
       </c>
       <c r="T33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,22 +2619,28 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="G35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>-400</v>
@@ -2492,125 +2649,137 @@
         <v>-200</v>
       </c>
       <c r="J35" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
       </c>
       <c r="L35" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="M35" s="3">
         <v>-200</v>
       </c>
       <c r="N35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O35" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="P35" s="3">
         <v>-300</v>
       </c>
       <c r="Q35" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="R35" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="S35" s="3">
         <v>-400</v>
       </c>
       <c r="T35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2832,10 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2673,16 +2846,16 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
@@ -2712,25 +2885,31 @@
         <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>600</v>
       </c>
-      <c r="W41" s="3">
-        <v>100</v>
-      </c>
-      <c r="X41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2976,14 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2806,10 +2991,10 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
-      </c>
-      <c r="F43" s="3">
-        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
@@ -2818,13 +3003,13 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
@@ -2833,25 +3018,25 @@
         <v>300</v>
       </c>
       <c r="N43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O43" s="3">
         <v>300</v>
       </c>
       <c r="P43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>300</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
@@ -2863,10 +3048,16 @@
         <v>100</v>
       </c>
       <c r="X43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2898,16 +3089,16 @@
         <v>200</v>
       </c>
       <c r="M44" s="3">
+        <v>200</v>
+      </c>
+      <c r="N44" s="3">
+        <v>200</v>
+      </c>
+      <c r="O44" s="3">
         <v>300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>300</v>
-      </c>
-      <c r="O44" s="3">
-        <v>200</v>
-      </c>
-      <c r="P44" s="3">
-        <v>200</v>
       </c>
       <c r="Q44" s="3">
         <v>200</v>
@@ -2933,8 +3124,14 @@
       <c r="X44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2969,14 +3166,14 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
-        <v>100</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
@@ -3001,76 +3198,88 @@
       <c r="X45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>500</v>
+      </c>
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
-      </c>
-      <c r="H46" s="3">
-        <v>500</v>
-      </c>
-      <c r="I46" s="3">
-        <v>400</v>
       </c>
       <c r="J46" s="3">
         <v>500</v>
       </c>
       <c r="K46" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L46" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M46" s="3">
         <v>700</v>
       </c>
       <c r="N46" s="3">
+        <v>700</v>
+      </c>
+      <c r="O46" s="3">
+        <v>700</v>
+      </c>
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,16 +3346,22 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>500</v>
@@ -3161,13 +3376,13 @@
         <v>500</v>
       </c>
       <c r="J48" s="3">
+        <v>500</v>
+      </c>
+      <c r="K48" s="3">
+        <v>500</v>
+      </c>
+      <c r="L48" s="3">
         <v>600</v>
-      </c>
-      <c r="K48" s="3">
-        <v>400</v>
-      </c>
-      <c r="L48" s="3">
-        <v>400</v>
       </c>
       <c r="M48" s="3">
         <v>400</v>
@@ -3182,10 +3397,10 @@
         <v>400</v>
       </c>
       <c r="Q48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S48" s="3">
         <v>500</v>
@@ -3200,13 +3415,19 @@
         <v>500</v>
       </c>
       <c r="W48" s="3">
+        <v>500</v>
+      </c>
+      <c r="X48" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y48" s="3">
         <v>400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3247,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="P49" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R49" s="3">
         <v>300</v>
@@ -3259,22 +3480,28 @@
         <v>300</v>
       </c>
       <c r="T49" s="3">
+        <v>300</v>
+      </c>
+      <c r="U49" s="3">
+        <v>300</v>
+      </c>
+      <c r="V49" s="3">
         <v>400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>400</v>
-      </c>
-      <c r="V49" s="3">
-        <v>500</v>
-      </c>
-      <c r="W49" s="3">
-        <v>500</v>
       </c>
       <c r="X49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3642,14 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3716,14 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,22 +3790,28 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E54" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F54" s="3">
         <v>1000</v>
       </c>
       <c r="G54" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H54" s="3">
         <v>1000</v>
@@ -3569,10 +3820,10 @@
         <v>1000</v>
       </c>
       <c r="J54" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K54" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="L54" s="3">
         <v>1100</v>
@@ -3581,40 +3832,46 @@
         <v>1100</v>
       </c>
       <c r="N54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P54" s="3">
         <v>1200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1000</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1300</v>
       </c>
       <c r="R54" s="3">
         <v>1400</v>
       </c>
       <c r="S54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T54" s="3">
         <v>1400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V54" s="3">
         <v>1700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3924,10 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3683,31 +3944,31 @@
         <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
       </c>
       <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
@@ -3719,22 +3980,28 @@
         <v>100</v>
       </c>
       <c r="T57" s="3">
+        <v>100</v>
+      </c>
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
-        <v>100</v>
-      </c>
-      <c r="V57" s="3">
-        <v>100</v>
-      </c>
       <c r="W57" s="3">
+        <v>100</v>
+      </c>
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y57" s="3">
         <v>200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3742,7 +4009,7 @@
         <v>700</v>
       </c>
       <c r="E58" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F58" s="3">
         <v>700</v>
@@ -3751,22 +4018,22 @@
         <v>700</v>
       </c>
       <c r="H58" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="I58" s="3">
         <v>700</v>
       </c>
       <c r="J58" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L58" s="3">
         <v>600</v>
       </c>
       <c r="M58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N58" s="3">
         <v>600</v>
@@ -3775,19 +4042,19 @@
         <v>500</v>
       </c>
       <c r="P58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q58" s="3">
         <v>500</v>
       </c>
       <c r="R58" s="3">
+        <v>500</v>
+      </c>
+      <c r="S58" s="3">
+        <v>500</v>
+      </c>
+      <c r="T58" s="3">
         <v>400</v>
-      </c>
-      <c r="S58" s="3">
-        <v>300</v>
-      </c>
-      <c r="T58" s="3">
-        <v>300</v>
       </c>
       <c r="U58" s="3">
         <v>300</v>
@@ -3796,154 +4063,172 @@
         <v>300</v>
       </c>
       <c r="W58" s="3">
+        <v>300</v>
+      </c>
+      <c r="X58" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y58" s="3">
         <v>600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G59" s="3">
         <v>2100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>900</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1100</v>
       </c>
       <c r="S59" s="3">
         <v>900</v>
       </c>
       <c r="T59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U59" s="3">
+        <v>900</v>
+      </c>
+      <c r="V59" s="3">
         <v>800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E60" s="3">
         <v>3100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1400</v>
-      </c>
-      <c r="T60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="U60" s="3">
-        <v>1000</v>
       </c>
       <c r="V60" s="3">
         <v>1300</v>
       </c>
       <c r="W60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y60" s="3">
         <v>1500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>200</v>
@@ -3955,10 +4240,10 @@
         <v>200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4005,8 +4290,14 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4014,10 +4305,10 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -4031,23 +4322,23 @@
       <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3" t="s">
+      <c r="K62" s="3">
+        <v>100</v>
+      </c>
+      <c r="L62" s="3">
+        <v>100</v>
+      </c>
+      <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3" t="s">
+      <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
@@ -4055,11 +4346,11 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4073,8 +4364,14 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4586,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E66" s="3">
         <v>3300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G66" s="3">
         <v>3200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1400</v>
-      </c>
-      <c r="T66" s="3">
-        <v>1300</v>
-      </c>
-      <c r="U66" s="3">
-        <v>1000</v>
       </c>
       <c r="V66" s="3">
         <v>1300</v>
       </c>
       <c r="W66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y66" s="3">
         <v>1500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-31500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-31400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-31300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-30900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-30700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-30400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-30100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-29800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-29600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-29200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-29000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-28700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-28200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-27900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-27500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-27000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-26600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-26000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-25600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-25200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-24700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-2300</v>
+        <v>-2600</v>
       </c>
       <c r="E76" s="3">
-        <v>-2200</v>
+        <v>-2400</v>
       </c>
       <c r="F76" s="3">
         <v>-2300</v>
       </c>
       <c r="G76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I76" s="3">
         <v>-2000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-300</v>
       </c>
-      <c r="S76" s="3">
-        <v>100</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
+        <v>100</v>
+      </c>
+      <c r="V76" s="3">
         <v>400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>800</v>
       </c>
-      <c r="W76" s="3">
-        <v>0</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,95 +5428,107 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="G81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>-400</v>
@@ -5148,52 +5537,58 @@
         <v>-200</v>
       </c>
       <c r="J81" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
       </c>
       <c r="L81" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="M81" s="3">
         <v>-200</v>
       </c>
       <c r="N81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O81" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="P81" s="3">
         <v>-300</v>
       </c>
       <c r="Q81" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="R81" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="S81" s="3">
         <v>-400</v>
       </c>
       <c r="T81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5613,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5269,10 +5666,10 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U83" s="3">
         <v>100</v>
@@ -5286,8 +5683,14 @@
       <c r="X83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +6053,14 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5635,34 +6068,34 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -5671,13 +6104,13 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-200</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
@@ -5686,16 +6119,22 @@
         <v>-200</v>
       </c>
       <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,13 +6159,15 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5774,22 +6215,28 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V91" s="3">
         <v>-100</v>
       </c>
       <c r="W91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6377,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5978,22 +6437,28 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V94" s="3">
         <v>-100</v>
       </c>
       <c r="W94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6553,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,37 +6775,43 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -6332,10 +6823,10 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
@@ -6344,22 +6835,28 @@
         <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>800</v>
       </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6923,14 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6435,13 +6938,13 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -6474,24 +6977,30 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VYCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>VYCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -783,10 +787,10 @@
         <v>300</v>
       </c>
       <c r="G8" s="3">
+        <v>300</v>
+      </c>
+      <c r="H8" s="3">
         <v>500</v>
-      </c>
-      <c r="H8" s="3">
-        <v>300</v>
       </c>
       <c r="I8" s="3">
         <v>300</v>
@@ -795,10 +799,10 @@
         <v>300</v>
       </c>
       <c r="K8" s="3">
+        <v>300</v>
+      </c>
+      <c r="L8" s="3">
         <v>200</v>
-      </c>
-      <c r="L8" s="3">
-        <v>300</v>
       </c>
       <c r="M8" s="3">
         <v>300</v>
@@ -807,19 +811,19 @@
         <v>300</v>
       </c>
       <c r="O8" s="3">
+        <v>300</v>
+      </c>
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>500</v>
-      </c>
-      <c r="S8" s="3">
-        <v>300</v>
       </c>
       <c r="T8" s="3">
         <v>300</v>
@@ -828,22 +832,25 @@
         <v>300</v>
       </c>
       <c r="V8" s="3">
+        <v>300</v>
+      </c>
+      <c r="W8" s="3">
         <v>400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>400</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>300</v>
       </c>
       <c r="Z8" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -899,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
         <v>100</v>
@@ -908,7 +915,7 @@
         <v>100</v>
       </c>
       <c r="X9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y9" s="3">
         <v>0</v>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -931,10 +941,10 @@
         <v>300</v>
       </c>
       <c r="G10" s="3">
+        <v>300</v>
+      </c>
+      <c r="H10" s="3">
         <v>500</v>
-      </c>
-      <c r="H10" s="3">
-        <v>300</v>
       </c>
       <c r="I10" s="3">
         <v>300</v>
@@ -943,10 +953,10 @@
         <v>300</v>
       </c>
       <c r="K10" s="3">
+        <v>300</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
-      </c>
-      <c r="L10" s="3">
-        <v>300</v>
       </c>
       <c r="M10" s="3">
         <v>300</v>
@@ -955,43 +965,46 @@
         <v>300</v>
       </c>
       <c r="O10" s="3">
+        <v>300</v>
+      </c>
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>500</v>
-      </c>
-      <c r="S10" s="3">
-        <v>300</v>
       </c>
       <c r="T10" s="3">
         <v>300</v>
       </c>
       <c r="U10" s="3">
+        <v>300</v>
+      </c>
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>400</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>300</v>
       </c>
       <c r="Z10" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,16 +1031,17 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -1038,8 +1052,8 @@
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>8</v>
+      <c r="I12" s="3">
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
@@ -1074,11 +1088,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>8</v>
@@ -1086,14 +1100,17 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y12" s="3">
-        <v>0</v>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,22 +1183,25 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1198,11 +1218,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1210,11 +1230,11 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>300</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1222,8 +1242,8 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1297,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V15" s="3">
         <v>100</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,22 +1365,23 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>400</v>
       </c>
       <c r="F17" s="3">
+        <v>400</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>500</v>
       </c>
       <c r="H17" s="3">
         <v>500</v>
@@ -1366,16 +1393,16 @@
         <v>500</v>
       </c>
       <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>500</v>
       </c>
       <c r="O17" s="3">
         <v>500</v>
@@ -1384,54 +1411,57 @@
         <v>500</v>
       </c>
       <c r="Q17" s="3">
+        <v>500</v>
+      </c>
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
-      </c>
-      <c r="T17" s="3">
-        <v>600</v>
       </c>
       <c r="U17" s="3">
         <v>600</v>
       </c>
       <c r="V17" s="3">
+        <v>600</v>
+      </c>
+      <c r="W17" s="3">
         <v>700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
@@ -1446,28 +1476,28 @@
         <v>-200</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-300</v>
       </c>
       <c r="U18" s="3">
         <v>-300</v>
@@ -1476,19 +1506,22 @@
         <v>-300</v>
       </c>
       <c r="W18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X18" s="3">
         <v>-700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,13 +1548,14 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1575,11 +1609,11 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
@@ -1589,25 +1623,28 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>-200</v>
@@ -1619,31 +1656,31 @@
         <v>-200</v>
       </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
       </c>
       <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-100</v>
       </c>
       <c r="P21" s="3">
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-400</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-300</v>
       </c>
       <c r="U21" s="3">
         <v>-300</v>
@@ -1652,19 +1689,22 @@
         <v>-300</v>
       </c>
       <c r="W21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,8 +1777,11 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1746,16 +1789,16 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
@@ -1770,49 +1813,52 @@
         <v>-200</v>
       </c>
       <c r="M23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-400</v>
       </c>
       <c r="V23" s="3">
         <v>-400</v>
       </c>
       <c r="W23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X23" s="3">
         <v>-700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,25 +2008,28 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-200</v>
@@ -1992,54 +2044,57 @@
         <v>-200</v>
       </c>
       <c r="M26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-400</v>
       </c>
       <c r="V26" s="3">
         <v>-400</v>
       </c>
       <c r="W26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X26" s="3">
         <v>-700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
@@ -2048,67 +2103,70 @@
         <v>-200</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-800</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-500</v>
       </c>
       <c r="Y27" s="3">
         <v>-500</v>
       </c>
       <c r="Z27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2214,23 +2275,23 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,13 +2470,16 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2463,10 +2533,10 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
@@ -2477,13 +2547,16 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
@@ -2492,67 +2565,70 @@
         <v>-200</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-800</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-500</v>
       </c>
       <c r="Y33" s="3">
         <v>-500</v>
       </c>
       <c r="Z33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,13 +2701,16 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
@@ -2640,146 +2719,152 @@
         <v>-200</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-800</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-500</v>
       </c>
       <c r="Y35" s="3">
         <v>-500</v>
       </c>
       <c r="Z35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,13 +2920,14 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2852,13 +2939,13 @@
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
@@ -2891,25 +2978,28 @@
         <v>100</v>
       </c>
       <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>600</v>
       </c>
-      <c r="Y41" s="3">
-        <v>100</v>
-      </c>
       <c r="Z41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2991,37 +3084,37 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
-      </c>
-      <c r="O43" s="3">
-        <v>300</v>
       </c>
       <c r="P43" s="3">
         <v>300</v>
@@ -3030,11 +3123,11 @@
         <v>300</v>
       </c>
       <c r="R43" s="3">
+        <v>300</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
-        <v>100</v>
-      </c>
       <c r="T43" s="3">
         <v>100</v>
       </c>
@@ -3042,22 +3135,25 @@
         <v>100</v>
       </c>
       <c r="V43" s="3">
+        <v>100</v>
+      </c>
+      <c r="W43" s="3">
         <v>200</v>
       </c>
-      <c r="W43" s="3">
-        <v>100</v>
-      </c>
       <c r="X43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y43" s="3">
         <v>200</v>
       </c>
-      <c r="Y43" s="3">
-        <v>100</v>
-      </c>
       <c r="Z43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3095,13 +3191,13 @@
         <v>200</v>
       </c>
       <c r="O44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P44" s="3">
         <v>300</v>
       </c>
       <c r="Q44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R44" s="3">
         <v>200</v>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3172,11 +3271,11 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
-        <v>100</v>
-      </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
@@ -3204,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3216,28 +3318,28 @@
         <v>500</v>
       </c>
       <c r="F46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G46" s="3">
         <v>600</v>
       </c>
       <c r="H46" s="3">
+        <v>600</v>
+      </c>
+      <c r="I46" s="3">
         <v>400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>500</v>
       </c>
       <c r="J46" s="3">
         <v>500</v>
       </c>
       <c r="K46" s="3">
+        <v>500</v>
+      </c>
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
-      </c>
-      <c r="M46" s="3">
-        <v>700</v>
       </c>
       <c r="N46" s="3">
         <v>700</v>
@@ -3246,40 +3348,43 @@
         <v>700</v>
       </c>
       <c r="P46" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>500</v>
-      </c>
-      <c r="T46" s="3">
-        <v>600</v>
       </c>
       <c r="U46" s="3">
         <v>600</v>
       </c>
       <c r="V46" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="W46" s="3">
         <v>900</v>
       </c>
       <c r="X46" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y46" s="3">
         <v>1100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3364,7 +3472,7 @@
         <v>400</v>
       </c>
       <c r="F48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G48" s="3">
         <v>500</v>
@@ -3382,10 +3490,10 @@
         <v>500</v>
       </c>
       <c r="L48" s="3">
+        <v>500</v>
+      </c>
+      <c r="M48" s="3">
         <v>600</v>
-      </c>
-      <c r="M48" s="3">
-        <v>400</v>
       </c>
       <c r="N48" s="3">
         <v>400</v>
@@ -3403,7 +3511,7 @@
         <v>400</v>
       </c>
       <c r="S48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T48" s="3">
         <v>500</v>
@@ -3421,21 +3529,24 @@
         <v>500</v>
       </c>
       <c r="Y48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Z48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>100</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -3474,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="R49" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S49" s="3">
         <v>300</v>
@@ -3486,13 +3597,13 @@
         <v>300</v>
       </c>
       <c r="V49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W49" s="3">
         <v>400</v>
       </c>
       <c r="X49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Y49" s="3">
         <v>500</v>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,8 +3919,11 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3808,13 +3934,13 @@
         <v>900</v>
       </c>
       <c r="F54" s="3">
+        <v>900</v>
+      </c>
+      <c r="G54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1100</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1000</v>
       </c>
       <c r="I54" s="3">
         <v>1000</v>
@@ -3826,7 +3952,7 @@
         <v>1000</v>
       </c>
       <c r="L54" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="M54" s="3">
         <v>1100</v>
@@ -3838,40 +3964,43 @@
         <v>1100</v>
       </c>
       <c r="P54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1300</v>
-      </c>
-      <c r="T54" s="3">
-        <v>1400</v>
       </c>
       <c r="U54" s="3">
         <v>1400</v>
       </c>
       <c r="V54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W54" s="3">
         <v>1700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2100</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>1500</v>
       </c>
       <c r="Z54" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,13 +4056,14 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -3950,19 +4081,19 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
         <v>200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
@@ -3971,7 +4102,7 @@
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
@@ -3986,22 +4117,25 @@
         <v>100</v>
       </c>
       <c r="V57" s="3">
+        <v>100</v>
+      </c>
+      <c r="W57" s="3">
         <v>200</v>
       </c>
-      <c r="W57" s="3">
-        <v>100</v>
-      </c>
       <c r="X57" s="3">
         <v>100</v>
       </c>
       <c r="Y57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4009,10 +4143,10 @@
         <v>700</v>
       </c>
       <c r="E58" s="3">
+        <v>700</v>
+      </c>
+      <c r="F58" s="3">
         <v>600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>700</v>
       </c>
       <c r="G58" s="3">
         <v>700</v>
@@ -4024,13 +4158,13 @@
         <v>700</v>
       </c>
       <c r="J58" s="3">
+        <v>700</v>
+      </c>
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
-      </c>
-      <c r="L58" s="3">
-        <v>600</v>
       </c>
       <c r="M58" s="3">
         <v>600</v>
@@ -4039,13 +4173,13 @@
         <v>600</v>
       </c>
       <c r="O58" s="3">
+        <v>600</v>
+      </c>
+      <c r="P58" s="3">
         <v>500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>600</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>500</v>
       </c>
       <c r="R58" s="3">
         <v>500</v>
@@ -4054,10 +4188,10 @@
         <v>500</v>
       </c>
       <c r="T58" s="3">
+        <v>500</v>
+      </c>
+      <c r="U58" s="3">
         <v>400</v>
-      </c>
-      <c r="U58" s="3">
-        <v>300</v>
       </c>
       <c r="V58" s="3">
         <v>300</v>
@@ -4069,13 +4203,16 @@
         <v>300</v>
       </c>
       <c r="Y58" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Z58" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4083,73 +4220,76 @@
         <v>2500</v>
       </c>
       <c r="E59" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="F59" s="3">
         <v>2300</v>
       </c>
       <c r="G59" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="H59" s="3">
         <v>2100</v>
       </c>
       <c r="I59" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="J59" s="3">
         <v>1900</v>
       </c>
       <c r="K59" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="L59" s="3">
         <v>1700</v>
       </c>
       <c r="M59" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="N59" s="3">
         <v>1600</v>
       </c>
       <c r="O59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P59" s="3">
         <v>1500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1200</v>
       </c>
       <c r="R59" s="3">
         <v>1200</v>
       </c>
       <c r="S59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T59" s="3">
         <v>900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4157,73 +4297,76 @@
         <v>3400</v>
       </c>
       <c r="E60" s="3">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="F60" s="3">
         <v>3100</v>
       </c>
       <c r="G60" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H60" s="3">
         <v>3000</v>
       </c>
       <c r="I60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2800</v>
-      </c>
-      <c r="K60" s="3">
-        <v>2600</v>
       </c>
       <c r="L60" s="3">
         <v>2600</v>
       </c>
       <c r="M60" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="N60" s="3">
         <v>2400</v>
       </c>
       <c r="O60" s="3">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="P60" s="3">
         <v>2100</v>
       </c>
       <c r="Q60" s="3">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="R60" s="3">
         <v>1800</v>
       </c>
       <c r="S60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T60" s="3">
         <v>1500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4231,7 +4374,7 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
@@ -4246,7 +4389,7 @@
         <v>200</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4311,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -4328,20 +4474,20 @@
       <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
+      <c r="M62" s="3">
+        <v>100</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
@@ -4352,8 +4498,8 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,8 +4747,11 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4601,73 +4759,76 @@
         <v>3500</v>
       </c>
       <c r="E66" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="F66" s="3">
         <v>3300</v>
       </c>
       <c r="G66" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H66" s="3">
         <v>3200</v>
       </c>
       <c r="I66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J66" s="3">
         <v>3000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2900</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2700</v>
       </c>
       <c r="L66" s="3">
         <v>2700</v>
       </c>
       <c r="M66" s="3">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N66" s="3">
         <v>2400</v>
       </c>
       <c r="O66" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="P66" s="3">
         <v>2200</v>
       </c>
       <c r="Q66" s="3">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="R66" s="3">
         <v>1800</v>
       </c>
       <c r="S66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T66" s="3">
         <v>1500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-31900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-31700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-31500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-31400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-31300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-30900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-30700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-30400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-30100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-29800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-29600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-29200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-28700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-28200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-27900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-27500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-27000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-26600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-26000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-25600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-25200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-24700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,8 +5469,11 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5295,73 +5481,76 @@
         <v>-2600</v>
       </c>
       <c r="E76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-1000</v>
       </c>
       <c r="P76" s="3">
         <v>-1000</v>
       </c>
       <c r="Q76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R76" s="3">
         <v>-800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-300</v>
       </c>
-      <c r="U76" s="3">
-        <v>100</v>
-      </c>
       <c r="V76" s="3">
+        <v>100</v>
+      </c>
+      <c r="W76" s="3">
         <v>400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>800</v>
       </c>
-      <c r="Y76" s="3">
-        <v>0</v>
-      </c>
       <c r="Z76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,92 +5623,98 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>
@@ -5528,67 +5723,70 @@
         <v>-200</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-800</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-500</v>
       </c>
       <c r="Y81" s="3">
         <v>-500</v>
       </c>
       <c r="Z81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5672,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V83" s="3">
         <v>100</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,46 +6273,49 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -6110,31 +6327,34 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
       <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-200</v>
       </c>
       <c r="X89" s="3">
         <v>-200</v>
       </c>
       <c r="Y89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,16 +6381,17 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -6221,7 +6442,7 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W91" s="3">
         <v>-100</v>
@@ -6230,13 +6451,16 @@
         <v>-100</v>
       </c>
       <c r="Y91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6443,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W94" s="3">
         <v>-100</v>
@@ -6452,13 +6682,16 @@
         <v>-100</v>
       </c>
       <c r="Y94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,16 +7024,19 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -6799,22 +7045,22 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -6829,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
@@ -6841,22 +7087,25 @@
         <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>800</v>
       </c>
       <c r="Y100" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="Z100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6944,10 +7196,10 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -6983,24 +7235,27 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
         <v>-100</v>
       </c>
       <c r="V102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W102" s="3">
         <v>-200</v>
-      </c>
-      <c r="W102" s="3">
-        <v>500</v>
       </c>
       <c r="X102" s="3">
         <v>500</v>
       </c>
       <c r="Y102" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VYCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>VYCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -790,10 +794,10 @@
         <v>300</v>
       </c>
       <c r="H8" s="3">
+        <v>300</v>
+      </c>
+      <c r="I8" s="3">
         <v>500</v>
-      </c>
-      <c r="I8" s="3">
-        <v>300</v>
       </c>
       <c r="J8" s="3">
         <v>300</v>
@@ -802,10 +806,10 @@
         <v>300</v>
       </c>
       <c r="L8" s="3">
+        <v>300</v>
+      </c>
+      <c r="M8" s="3">
         <v>200</v>
-      </c>
-      <c r="M8" s="3">
-        <v>300</v>
       </c>
       <c r="N8" s="3">
         <v>300</v>
@@ -814,19 +818,19 @@
         <v>300</v>
       </c>
       <c r="P8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>500</v>
-      </c>
-      <c r="T8" s="3">
-        <v>300</v>
       </c>
       <c r="U8" s="3">
         <v>300</v>
@@ -835,22 +839,25 @@
         <v>300</v>
       </c>
       <c r="W8" s="3">
+        <v>300</v>
+      </c>
+      <c r="X8" s="3">
         <v>400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>400</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>300</v>
       </c>
       <c r="AA8" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -909,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W9" s="3">
         <v>100</v>
@@ -918,7 +925,7 @@
         <v>100</v>
       </c>
       <c r="Y9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z9" s="3">
         <v>0</v>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -944,10 +954,10 @@
         <v>300</v>
       </c>
       <c r="H10" s="3">
+        <v>300</v>
+      </c>
+      <c r="I10" s="3">
         <v>500</v>
-      </c>
-      <c r="I10" s="3">
-        <v>300</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
@@ -956,10 +966,10 @@
         <v>300</v>
       </c>
       <c r="L10" s="3">
+        <v>300</v>
+      </c>
+      <c r="M10" s="3">
         <v>200</v>
-      </c>
-      <c r="M10" s="3">
-        <v>300</v>
       </c>
       <c r="N10" s="3">
         <v>300</v>
@@ -968,43 +978,46 @@
         <v>300</v>
       </c>
       <c r="P10" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>500</v>
-      </c>
-      <c r="T10" s="3">
-        <v>300</v>
       </c>
       <c r="U10" s="3">
         <v>300</v>
       </c>
       <c r="V10" s="3">
+        <v>300</v>
+      </c>
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>400</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>300</v>
       </c>
       <c r="AA10" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1057,8 @@
       <c r="E12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
+      <c r="F12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -1055,8 +1069,8 @@
       <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>8</v>
+      <c r="J12" s="3">
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
@@ -1091,11 +1105,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
-      <c r="W12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>8</v>
@@ -1103,14 +1117,17 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z12" s="3">
-        <v>0</v>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,25 +1203,28 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1221,11 +1241,11 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1233,11 +1253,11 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>300</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1245,8 +1265,8 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1323,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W15" s="3">
         <v>100</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1381,10 +1408,10 @@
         <v>400</v>
       </c>
       <c r="G17" s="3">
+        <v>400</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>500</v>
       </c>
       <c r="I17" s="3">
         <v>500</v>
@@ -1396,16 +1423,16 @@
         <v>500</v>
       </c>
       <c r="L17" s="3">
+        <v>500</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>500</v>
       </c>
       <c r="P17" s="3">
         <v>500</v>
@@ -1414,37 +1441,40 @@
         <v>500</v>
       </c>
       <c r="R17" s="3">
+        <v>500</v>
+      </c>
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>700</v>
-      </c>
-      <c r="U17" s="3">
-        <v>600</v>
       </c>
       <c r="V17" s="3">
         <v>600</v>
       </c>
       <c r="W17" s="3">
+        <v>600</v>
+      </c>
+      <c r="X17" s="3">
         <v>700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1458,13 +1488,13 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
@@ -1479,28 +1509,28 @@
         <v>-200</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-300</v>
       </c>
       <c r="V18" s="3">
         <v>-300</v>
@@ -1509,19 +1539,22 @@
         <v>-300</v>
       </c>
       <c r="X18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1612,11 +1646,11 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
@@ -1626,8 +1660,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,19 +1672,19 @@
         <v>-100</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <v>-200</v>
@@ -1659,31 +1696,31 @@
         <v>-200</v>
       </c>
       <c r="M21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
       </c>
       <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
         <v>-200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-100</v>
       </c>
       <c r="Q21" s="3">
         <v>-100</v>
       </c>
       <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-400</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-300</v>
       </c>
       <c r="V21" s="3">
         <v>-300</v>
@@ -1692,19 +1729,22 @@
         <v>-300</v>
       </c>
       <c r="X21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,8 +1820,11 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1792,16 +1835,16 @@
         <v>-100</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
@@ -1816,49 +1859,52 @@
         <v>-200</v>
       </c>
       <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-400</v>
       </c>
       <c r="W23" s="3">
         <v>-400</v>
       </c>
       <c r="X23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,8 +2060,11 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2023,16 +2075,16 @@
         <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
@@ -2047,57 +2099,60 @@
         <v>-200</v>
       </c>
       <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-400</v>
       </c>
       <c r="W26" s="3">
         <v>-400</v>
       </c>
       <c r="X26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-200</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
@@ -2106,67 +2161,70 @@
         <v>-200</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-500</v>
       </c>
       <c r="Z27" s="3">
         <v>-500</v>
       </c>
       <c r="AA27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2278,23 +2339,23 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2536,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
@@ -2550,16 +2620,19 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-200</v>
       </c>
       <c r="F33" s="3">
         <v>-200</v>
@@ -2568,67 +2641,70 @@
         <v>-200</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-500</v>
       </c>
       <c r="Z33" s="3">
         <v>-500</v>
       </c>
       <c r="AA33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,16 +2780,19 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-200</v>
       </c>
       <c r="F35" s="3">
         <v>-200</v>
@@ -2722,149 +2801,155 @@
         <v>-200</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-500</v>
       </c>
       <c r="Z35" s="3">
         <v>-500</v>
       </c>
       <c r="AA35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2930,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -2942,13 +3029,13 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
@@ -2981,25 +3068,28 @@
         <v>100</v>
       </c>
       <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>600</v>
       </c>
-      <c r="Z41" s="3">
-        <v>100</v>
-      </c>
       <c r="AA41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3087,37 +3180,37 @@
         <v>200</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>200</v>
-      </c>
-      <c r="P43" s="3">
-        <v>300</v>
       </c>
       <c r="Q43" s="3">
         <v>300</v>
@@ -3126,11 +3219,11 @@
         <v>300</v>
       </c>
       <c r="S43" s="3">
+        <v>300</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
-        <v>100</v>
-      </c>
       <c r="U43" s="3">
         <v>100</v>
       </c>
@@ -3138,27 +3231,30 @@
         <v>100</v>
       </c>
       <c r="W43" s="3">
+        <v>100</v>
+      </c>
+      <c r="X43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="3">
-        <v>100</v>
-      </c>
       <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z43" s="3">
         <v>200</v>
       </c>
-      <c r="Z43" s="3">
-        <v>100</v>
-      </c>
       <c r="AA43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
@@ -3194,13 +3290,13 @@
         <v>200</v>
       </c>
       <c r="P44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q44" s="3">
         <v>300</v>
       </c>
       <c r="R44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S44" s="3">
         <v>200</v>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3274,11 +3373,11 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
-        <v>100</v>
-      </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
@@ -3306,13 +3405,16 @@
       <c r="AA45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E46" s="3">
         <v>500</v>
@@ -3321,28 +3423,28 @@
         <v>500</v>
       </c>
       <c r="G46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H46" s="3">
         <v>600</v>
       </c>
       <c r="I46" s="3">
+        <v>600</v>
+      </c>
+      <c r="J46" s="3">
         <v>400</v>
-      </c>
-      <c r="J46" s="3">
-        <v>500</v>
       </c>
       <c r="K46" s="3">
         <v>500</v>
       </c>
       <c r="L46" s="3">
+        <v>500</v>
+      </c>
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
-      </c>
-      <c r="N46" s="3">
-        <v>700</v>
       </c>
       <c r="O46" s="3">
         <v>700</v>
@@ -3351,40 +3453,43 @@
         <v>700</v>
       </c>
       <c r="Q46" s="3">
+        <v>700</v>
+      </c>
+      <c r="R46" s="3">
         <v>800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>500</v>
-      </c>
-      <c r="U46" s="3">
-        <v>600</v>
       </c>
       <c r="V46" s="3">
         <v>600</v>
       </c>
       <c r="W46" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="X46" s="3">
         <v>900</v>
       </c>
       <c r="Y46" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z46" s="3">
         <v>1100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3475,7 +3583,7 @@
         <v>400</v>
       </c>
       <c r="G48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H48" s="3">
         <v>500</v>
@@ -3493,10 +3601,10 @@
         <v>500</v>
       </c>
       <c r="M48" s="3">
+        <v>500</v>
+      </c>
+      <c r="N48" s="3">
         <v>600</v>
-      </c>
-      <c r="N48" s="3">
-        <v>400</v>
       </c>
       <c r="O48" s="3">
         <v>400</v>
@@ -3514,7 +3622,7 @@
         <v>400</v>
       </c>
       <c r="T48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="U48" s="3">
         <v>500</v>
@@ -3532,13 +3640,16 @@
         <v>500</v>
       </c>
       <c r="Z48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AA48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3548,8 +3659,8 @@
       <c r="E49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -3588,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="S49" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T49" s="3">
         <v>300</v>
@@ -3600,13 +3711,13 @@
         <v>300</v>
       </c>
       <c r="W49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="X49" s="3">
         <v>400</v>
       </c>
       <c r="Y49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Z49" s="3">
         <v>500</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4045,11 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3937,13 +4063,13 @@
         <v>900</v>
       </c>
       <c r="G54" s="3">
+        <v>900</v>
+      </c>
+      <c r="H54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1100</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1000</v>
       </c>
       <c r="J54" s="3">
         <v>1000</v>
@@ -3955,7 +4081,7 @@
         <v>1000</v>
       </c>
       <c r="M54" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="N54" s="3">
         <v>1100</v>
@@ -3967,40 +4093,43 @@
         <v>1100</v>
       </c>
       <c r="Q54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R54" s="3">
         <v>1200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1300</v>
-      </c>
-      <c r="U54" s="3">
-        <v>1400</v>
       </c>
       <c r="V54" s="3">
         <v>1400</v>
       </c>
       <c r="W54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X54" s="3">
         <v>1700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2100</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>1500</v>
       </c>
       <c r="AA54" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,16 +4187,17 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -4084,19 +4215,19 @@
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
@@ -4105,7 +4236,7 @@
         <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
@@ -4120,36 +4251,39 @@
         <v>100</v>
       </c>
       <c r="W57" s="3">
+        <v>100</v>
+      </c>
+      <c r="X57" s="3">
         <v>200</v>
       </c>
-      <c r="X57" s="3">
-        <v>100</v>
-      </c>
       <c r="Y57" s="3">
         <v>100</v>
       </c>
       <c r="Z57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E58" s="3">
         <v>700</v>
       </c>
       <c r="F58" s="3">
+        <v>700</v>
+      </c>
+      <c r="G58" s="3">
         <v>600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>700</v>
       </c>
       <c r="H58" s="3">
         <v>700</v>
@@ -4161,13 +4295,13 @@
         <v>700</v>
       </c>
       <c r="K58" s="3">
+        <v>700</v>
+      </c>
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
-      </c>
-      <c r="M58" s="3">
-        <v>600</v>
       </c>
       <c r="N58" s="3">
         <v>600</v>
@@ -4176,13 +4310,13 @@
         <v>600</v>
       </c>
       <c r="P58" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q58" s="3">
         <v>500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>600</v>
-      </c>
-      <c r="R58" s="3">
-        <v>500</v>
       </c>
       <c r="S58" s="3">
         <v>500</v>
@@ -4191,10 +4325,10 @@
         <v>500</v>
       </c>
       <c r="U58" s="3">
+        <v>500</v>
+      </c>
+      <c r="V58" s="3">
         <v>400</v>
-      </c>
-      <c r="V58" s="3">
-        <v>300</v>
       </c>
       <c r="W58" s="3">
         <v>300</v>
@@ -4206,167 +4340,176 @@
         <v>300</v>
       </c>
       <c r="Z58" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="AA58" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E59" s="3">
         <v>2500</v>
       </c>
       <c r="F59" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="G59" s="3">
         <v>2300</v>
       </c>
       <c r="H59" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="I59" s="3">
         <v>2100</v>
       </c>
       <c r="J59" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="K59" s="3">
         <v>1900</v>
       </c>
       <c r="L59" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="M59" s="3">
         <v>1700</v>
       </c>
       <c r="N59" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="O59" s="3">
         <v>1600</v>
       </c>
       <c r="P59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1400</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1200</v>
       </c>
       <c r="S59" s="3">
         <v>1200</v>
       </c>
       <c r="T59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U59" s="3">
         <v>900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="E60" s="3">
         <v>3400</v>
       </c>
       <c r="F60" s="3">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="G60" s="3">
         <v>3100</v>
       </c>
       <c r="H60" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I60" s="3">
         <v>3000</v>
       </c>
       <c r="J60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2800</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2600</v>
       </c>
       <c r="M60" s="3">
         <v>2600</v>
       </c>
       <c r="N60" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="O60" s="3">
         <v>2400</v>
       </c>
       <c r="P60" s="3">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="Q60" s="3">
         <v>2100</v>
       </c>
       <c r="R60" s="3">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="S60" s="3">
         <v>1800</v>
       </c>
       <c r="T60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U60" s="3">
         <v>1500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4377,7 +4520,7 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
@@ -4392,7 +4535,7 @@
         <v>200</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4460,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
@@ -4477,20 +4623,20 @@
       <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
+      <c r="N62" s="3">
+        <v>100</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
@@ -4501,8 +4647,8 @@
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="E66" s="3">
         <v>3500</v>
       </c>
       <c r="F66" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="G66" s="3">
         <v>3300</v>
       </c>
       <c r="H66" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="I66" s="3">
         <v>3200</v>
       </c>
       <c r="J66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K66" s="3">
         <v>3000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2900</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2700</v>
       </c>
       <c r="M66" s="3">
         <v>2700</v>
       </c>
       <c r="N66" s="3">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="O66" s="3">
         <v>2400</v>
       </c>
       <c r="P66" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="Q66" s="3">
         <v>2200</v>
       </c>
       <c r="R66" s="3">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="S66" s="3">
         <v>1800</v>
       </c>
       <c r="T66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U66" s="3">
         <v>1500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-32000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-31900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-31700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-31500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-31400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-31300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-30900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-30700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-30400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-30100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-29800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-29600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-29200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-29000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-28700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-28200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-27900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-27500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-27000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-26600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-26000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-25600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-25200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-24700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-2600</v>
+        <v>-2800</v>
       </c>
       <c r="E76" s="3">
         <v>-2600</v>
       </c>
       <c r="F76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G76" s="3">
         <v>-2400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q76" s="3">
         <v>-1000</v>
       </c>
       <c r="R76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S76" s="3">
         <v>-800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-300</v>
       </c>
-      <c r="V76" s="3">
-        <v>100</v>
-      </c>
       <c r="W76" s="3">
+        <v>100</v>
+      </c>
+      <c r="X76" s="3">
         <v>400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>800</v>
       </c>
-      <c r="Z76" s="3">
-        <v>0</v>
-      </c>
       <c r="AA76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,98 +5815,104 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-200</v>
       </c>
       <c r="F81" s="3">
         <v>-200</v>
@@ -5726,67 +5921,70 @@
         <v>-200</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-500</v>
       </c>
       <c r="Z81" s="3">
         <v>-500</v>
       </c>
       <c r="AA81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5874,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W83" s="3">
         <v>100</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,49 +6490,52 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -6330,31 +6547,34 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
       <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
-      </c>
-      <c r="X89" s="3">
-        <v>-200</v>
       </c>
       <c r="Y89" s="3">
         <v>-200</v>
       </c>
       <c r="Z89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,19 +6602,20 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -6445,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="W91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X91" s="3">
         <v>-100</v>
@@ -6454,13 +6675,16 @@
         <v>-100</v>
       </c>
       <c r="Z91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6676,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X94" s="3">
         <v>-100</v>
@@ -6685,13 +6915,16 @@
         <v>-100</v>
       </c>
       <c r="Z94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,19 +7270,22 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -7048,22 +7294,22 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -7078,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
@@ -7090,22 +7336,25 @@
         <v>100</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X100" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="3">
         <v>800</v>
       </c>
       <c r="Z100" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7199,10 +7451,10 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -7238,24 +7490,27 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
         <v>-100</v>
       </c>
       <c r="W102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X102" s="3">
         <v>-200</v>
-      </c>
-      <c r="X102" s="3">
-        <v>500</v>
       </c>
       <c r="Y102" s="3">
         <v>500</v>
       </c>
       <c r="Z102" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VYCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>VYCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,131 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E8" s="3">
         <v>300</v>
@@ -797,31 +804,31 @@
         <v>300</v>
       </c>
       <c r="I8" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J8" s="3">
         <v>300</v>
       </c>
       <c r="K8" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L8" s="3">
         <v>300</v>
       </c>
       <c r="M8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N8" s="3">
         <v>300</v>
       </c>
       <c r="O8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P8" s="3">
         <v>300</v>
       </c>
       <c r="Q8" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R8" s="3">
         <v>300</v>
@@ -830,34 +837,40 @@
         <v>400</v>
       </c>
       <c r="T8" s="3">
+        <v>300</v>
+      </c>
+      <c r="U8" s="3">
+        <v>400</v>
+      </c>
+      <c r="V8" s="3">
         <v>500</v>
-      </c>
-      <c r="U8" s="3">
-        <v>300</v>
-      </c>
-      <c r="V8" s="3">
-        <v>300</v>
       </c>
       <c r="W8" s="3">
         <v>300</v>
       </c>
       <c r="X8" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y8" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="Z8" s="3">
         <v>400</v>
       </c>
       <c r="AA8" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC8" s="3">
         <v>300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -919,30 +932,36 @@
         <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="3">
         <v>100</v>
       </c>
       <c r="Z9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E10" s="3">
         <v>300</v>
@@ -957,31 +976,31 @@
         <v>300</v>
       </c>
       <c r="I10" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
       </c>
       <c r="K10" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L10" s="3">
         <v>300</v>
       </c>
       <c r="M10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N10" s="3">
         <v>300</v>
       </c>
       <c r="O10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P10" s="3">
         <v>300</v>
       </c>
       <c r="Q10" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R10" s="3">
         <v>300</v>
@@ -990,34 +1009,40 @@
         <v>400</v>
       </c>
       <c r="T10" s="3">
+        <v>300</v>
+      </c>
+      <c r="U10" s="3">
+        <v>400</v>
+      </c>
+      <c r="V10" s="3">
         <v>500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>300</v>
-      </c>
-      <c r="V10" s="3">
-        <v>300</v>
-      </c>
-      <c r="W10" s="3">
-        <v>200</v>
       </c>
       <c r="X10" s="3">
         <v>300</v>
       </c>
       <c r="Y10" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA10" s="3">
         <v>600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,13 +1071,15 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
+      <c r="D12" s="3">
+        <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
@@ -1060,11 +1087,11 @@
       <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
+      <c r="G12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -1072,11 +1099,11 @@
       <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>8</v>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>8</v>
@@ -1108,26 +1135,32 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W12" s="3">
-        <v>0</v>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y12" s="3" t="s">
-        <v>8</v>
+      <c r="Y12" s="3">
+        <v>0</v>
       </c>
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,31 +1239,37 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1244,35 +1283,35 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>300</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>300</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1286,8 +1325,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1349,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="W15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="3">
         <v>100</v>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,13 +1444,15 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>400</v>
@@ -1411,13 +1464,13 @@
         <v>400</v>
       </c>
       <c r="H17" s="3">
+        <v>400</v>
+      </c>
+      <c r="I17" s="3">
+        <v>400</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>500</v>
@@ -1426,60 +1479,66 @@
         <v>500</v>
       </c>
       <c r="M17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>500</v>
       </c>
       <c r="O17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>500</v>
       </c>
       <c r="Q17" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="R17" s="3">
         <v>500</v>
       </c>
       <c r="S17" s="3">
+        <v>500</v>
+      </c>
+      <c r="T17" s="3">
+        <v>500</v>
+      </c>
+      <c r="U17" s="3">
         <v>900</v>
-      </c>
-      <c r="T17" s="3">
-        <v>600</v>
-      </c>
-      <c r="U17" s="3">
-        <v>700</v>
       </c>
       <c r="V17" s="3">
         <v>600</v>
       </c>
       <c r="W17" s="3">
+        <v>700</v>
+      </c>
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
-        <v>700</v>
-      </c>
       <c r="Y17" s="3">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="Z17" s="3">
         <v>700</v>
       </c>
       <c r="AA17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC17" s="3">
         <v>800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
@@ -1491,16 +1550,16 @@
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
@@ -1512,49 +1571,55 @@
         <v>-200</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>-200</v>
       </c>
       <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-300</v>
       </c>
       <c r="X18" s="3">
         <v>-300</v>
       </c>
       <c r="Y18" s="3">
-        <v>-700</v>
+        <v>-300</v>
       </c>
       <c r="Z18" s="3">
         <v>-300</v>
       </c>
       <c r="AA18" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="AB18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1648,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1649,33 +1716,39 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3">
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
         <v>-100</v>
@@ -1684,13 +1757,13 @@
         <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
         <v>-200</v>
@@ -1699,22 +1772,22 @@
         <v>-200</v>
       </c>
       <c r="N21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-200</v>
       </c>
       <c r="Q21" s="3">
         <v>-100</v>
       </c>
       <c r="R21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-400</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
@@ -1723,28 +1796,34 @@
         <v>-400</v>
       </c>
       <c r="V21" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="W21" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="X21" s="3">
         <v>-300</v>
       </c>
       <c r="Y21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-500</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>-400</v>
       </c>
       <c r="AB21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,13 +1902,19 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
@@ -1838,19 +1923,19 @@
         <v>-100</v>
       </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>-200</v>
@@ -1862,7 +1947,7 @@
         <v>-200</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P23" s="3">
         <v>-200</v>
@@ -1871,40 +1956,46 @@
         <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-300</v>
       </c>
       <c r="W23" s="3">
         <v>-400</v>
       </c>
       <c r="X23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-700</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>-500</v>
       </c>
       <c r="AB23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,13 +2160,19 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -2078,19 +2181,19 @@
         <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>-200</v>
@@ -2102,7 +2205,7 @@
         <v>-200</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P26" s="3">
         <v>-200</v>
@@ -2111,66 +2214,72 @@
         <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-300</v>
       </c>
       <c r="W26" s="3">
         <v>-400</v>
       </c>
       <c r="X26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-700</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>-500</v>
       </c>
       <c r="AB26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J27" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="K27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>-400</v>
@@ -2179,52 +2288,58 @@
         <v>-200</v>
       </c>
       <c r="N27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-500</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-400</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="S27" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-300</v>
       </c>
       <c r="U27" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="V27" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="W27" s="3">
         <v>-400</v>
       </c>
       <c r="X27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2342,26 +2463,26 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2676,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2609,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
       <c r="Z32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA32" s="3">
         <v>0</v>
@@ -2623,34 +2762,40 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J33" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="K33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>-400</v>
@@ -2659,52 +2804,58 @@
         <v>-200</v>
       </c>
       <c r="N33" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="O33" s="3">
         <v>-200</v>
       </c>
       <c r="P33" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="Q33" s="3">
         <v>-200</v>
       </c>
       <c r="R33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="S33" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="T33" s="3">
         <v>-300</v>
       </c>
       <c r="U33" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="V33" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="W33" s="3">
         <v>-400</v>
       </c>
       <c r="X33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,34 +2934,40 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J35" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="K35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>-400</v>
@@ -2819,137 +2976,149 @@
         <v>-200</v>
       </c>
       <c r="N35" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="O35" s="3">
         <v>-200</v>
       </c>
       <c r="P35" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="Q35" s="3">
         <v>-200</v>
       </c>
       <c r="R35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="S35" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="T35" s="3">
         <v>-300</v>
       </c>
       <c r="U35" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="V35" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="W35" s="3">
         <v>-400</v>
       </c>
       <c r="X35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3179,10 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3020,10 +3193,10 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
@@ -3032,16 +3205,16 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
@@ -3071,25 +3244,31 @@
         <v>100</v>
       </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
         <v>200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>600</v>
       </c>
-      <c r="AA41" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3347,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3183,16 +3368,16 @@
         <v>200</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
       </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
@@ -3201,13 +3386,13 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>200</v>
@@ -3216,25 +3401,25 @@
         <v>300</v>
       </c>
       <c r="R43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S43" s="3">
         <v>300</v>
       </c>
       <c r="T43" s="3">
+        <v>300</v>
+      </c>
+      <c r="U43" s="3">
+        <v>300</v>
+      </c>
+      <c r="V43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
-        <v>100</v>
-      </c>
-      <c r="V43" s="3">
-        <v>100</v>
-      </c>
       <c r="W43" s="3">
         <v>100</v>
       </c>
       <c r="X43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y43" s="3">
         <v>100</v>
@@ -3246,21 +3431,27 @@
         <v>100</v>
       </c>
       <c r="AB43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
       </c>
       <c r="F44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
@@ -3293,16 +3484,16 @@
         <v>200</v>
       </c>
       <c r="Q44" s="3">
+        <v>200</v>
+      </c>
+      <c r="R44" s="3">
+        <v>200</v>
+      </c>
+      <c r="S44" s="3">
         <v>300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>300</v>
-      </c>
-      <c r="S44" s="3">
-        <v>200</v>
-      </c>
-      <c r="T44" s="3">
-        <v>200</v>
       </c>
       <c r="U44" s="3">
         <v>200</v>
@@ -3328,8 +3519,14 @@
       <c r="AB44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3376,14 +3573,14 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
-        <v>100</v>
-      </c>
-      <c r="T45" s="3">
-        <v>100</v>
-      </c>
       <c r="U45" s="3">
         <v>100</v>
       </c>
@@ -3408,88 +3605,100 @@
       <c r="AB45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E46" s="3">
         <v>500</v>
       </c>
       <c r="F46" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G46" s="3">
         <v>500</v>
       </c>
       <c r="H46" s="3">
+        <v>500</v>
+      </c>
+      <c r="I46" s="3">
+        <v>500</v>
+      </c>
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
-      </c>
-      <c r="L46" s="3">
-        <v>500</v>
-      </c>
-      <c r="M46" s="3">
-        <v>400</v>
       </c>
       <c r="N46" s="3">
         <v>500</v>
       </c>
       <c r="O46" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="P46" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q46" s="3">
         <v>700</v>
       </c>
       <c r="R46" s="3">
+        <v>700</v>
+      </c>
+      <c r="S46" s="3">
+        <v>700</v>
+      </c>
+      <c r="T46" s="3">
         <v>800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,16 +3777,22 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F48" s="3">
         <v>400</v>
@@ -3586,10 +3801,10 @@
         <v>400</v>
       </c>
       <c r="H48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J48" s="3">
         <v>500</v>
@@ -3604,13 +3819,13 @@
         <v>500</v>
       </c>
       <c r="N48" s="3">
+        <v>500</v>
+      </c>
+      <c r="O48" s="3">
+        <v>500</v>
+      </c>
+      <c r="P48" s="3">
         <v>600</v>
-      </c>
-      <c r="O48" s="3">
-        <v>400</v>
-      </c>
-      <c r="P48" s="3">
-        <v>400</v>
       </c>
       <c r="Q48" s="3">
         <v>400</v>
@@ -3625,10 +3840,10 @@
         <v>400</v>
       </c>
       <c r="U48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="V48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="W48" s="3">
         <v>500</v>
@@ -3643,13 +3858,19 @@
         <v>500</v>
       </c>
       <c r="AA48" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC48" s="3">
         <v>400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3662,11 +3883,11 @@
       <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
@@ -3702,10 +3923,10 @@
         <v>0</v>
       </c>
       <c r="T49" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U49" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V49" s="3">
         <v>300</v>
@@ -3714,22 +3935,28 @@
         <v>300</v>
       </c>
       <c r="X49" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z49" s="3">
         <v>400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>400</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>500</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>500</v>
       </c>
       <c r="AB49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,13 +4293,19 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E54" s="3">
         <v>900</v>
@@ -4066,16 +4317,16 @@
         <v>900</v>
       </c>
       <c r="H54" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I54" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="J54" s="3">
         <v>1000</v>
       </c>
       <c r="K54" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="L54" s="3">
         <v>1000</v>
@@ -4084,10 +4335,10 @@
         <v>1000</v>
       </c>
       <c r="N54" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="O54" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="P54" s="3">
         <v>1100</v>
@@ -4096,40 +4347,46 @@
         <v>1100</v>
       </c>
       <c r="R54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T54" s="3">
         <v>1200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1000</v>
-      </c>
-      <c r="T54" s="3">
-        <v>1400</v>
-      </c>
-      <c r="U54" s="3">
-        <v>1300</v>
       </c>
       <c r="V54" s="3">
         <v>1400</v>
       </c>
       <c r="W54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X54" s="3">
         <v>1400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Z54" s="3">
         <v>1700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>2100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>1500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4447,10 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4197,13 +4458,13 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -4218,31 +4479,31 @@
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
       </c>
       <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
+        <v>200</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
@@ -4254,22 +4515,28 @@
         <v>100</v>
       </c>
       <c r="X57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z57" s="3">
         <v>200</v>
       </c>
-      <c r="Y57" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>100</v>
-      </c>
       <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC57" s="3">
         <v>200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4277,19 +4544,19 @@
         <v>800</v>
       </c>
       <c r="E58" s="3">
+        <v>800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>800</v>
+      </c>
+      <c r="G58" s="3">
         <v>700</v>
-      </c>
-      <c r="F58" s="3">
-        <v>700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>600</v>
       </c>
       <c r="H58" s="3">
         <v>700</v>
       </c>
       <c r="I58" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J58" s="3">
         <v>700</v>
@@ -4298,22 +4565,22 @@
         <v>700</v>
       </c>
       <c r="L58" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M58" s="3">
         <v>700</v>
       </c>
       <c r="N58" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="O58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P58" s="3">
         <v>600</v>
       </c>
       <c r="Q58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R58" s="3">
         <v>600</v>
@@ -4322,19 +4589,19 @@
         <v>500</v>
       </c>
       <c r="T58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="U58" s="3">
         <v>500</v>
       </c>
       <c r="V58" s="3">
+        <v>500</v>
+      </c>
+      <c r="W58" s="3">
+        <v>500</v>
+      </c>
+      <c r="X58" s="3">
         <v>400</v>
-      </c>
-      <c r="W58" s="3">
-        <v>300</v>
-      </c>
-      <c r="X58" s="3">
-        <v>300</v>
       </c>
       <c r="Y58" s="3">
         <v>300</v>
@@ -4343,173 +4610,191 @@
         <v>300</v>
       </c>
       <c r="AA58" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC58" s="3">
         <v>600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G59" s="3">
         <v>2500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1200</v>
-      </c>
-      <c r="U59" s="3">
-        <v>900</v>
-      </c>
-      <c r="V59" s="3">
-        <v>1100</v>
       </c>
       <c r="W59" s="3">
         <v>900</v>
       </c>
       <c r="X59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z59" s="3">
         <v>800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F60" s="3">
         <v>3600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1400</v>
-      </c>
-      <c r="X60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>1000</v>
       </c>
       <c r="Z60" s="3">
         <v>1300</v>
       </c>
       <c r="AA60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AC60" s="3">
         <v>1500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4523,10 +4808,10 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>200</v>
@@ -4538,10 +4823,10 @@
         <v>200</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -4588,13 +4873,19 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -4609,10 +4900,10 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -4626,23 +4917,23 @@
       <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3" t="s">
+      <c r="O62" s="3">
+        <v>100</v>
+      </c>
+      <c r="P62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3" t="s">
+      <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
@@ -4650,11 +4941,11 @@
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E66" s="3">
         <v>3800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G66" s="3">
         <v>3500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1400</v>
-      </c>
-      <c r="X66" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>1000</v>
       </c>
       <c r="Z66" s="3">
         <v>1300</v>
       </c>
       <c r="AA66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AC66" s="3">
         <v>1500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-32300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-32000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-31900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-31700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-31500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-31400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-31300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-30900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-30700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-30400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-30100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-29800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-29600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-29200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-29000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-28700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-28200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-27900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-27500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-27000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-26600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-26000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-25600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-25200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-24700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2400</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-2200</v>
       </c>
       <c r="J76" s="3">
         <v>-2300</v>
       </c>
       <c r="K76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="L76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M76" s="3">
         <v>-2000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-300</v>
       </c>
-      <c r="W76" s="3">
-        <v>100</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z76" s="3">
         <v>400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>800</v>
       </c>
-      <c r="AA76" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,119 +6195,131 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J81" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="K81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>-400</v>
@@ -5939,52 +6328,58 @@
         <v>-200</v>
       </c>
       <c r="N81" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="O81" s="3">
         <v>-200</v>
       </c>
       <c r="P81" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="Q81" s="3">
         <v>-200</v>
       </c>
       <c r="R81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="S81" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="T81" s="3">
         <v>-300</v>
       </c>
       <c r="U81" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="V81" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="W81" s="3">
         <v>-400</v>
       </c>
       <c r="X81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6076,10 +6473,10 @@
         <v>0</v>
       </c>
       <c r="W83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y83" s="3">
         <v>100</v>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,13 +6920,19 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -6514,34 +6947,34 @@
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -6550,13 +6983,13 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-200</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
@@ -6565,16 +6998,22 @@
         <v>-200</v>
       </c>
       <c r="Z89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC89" s="3">
         <v>-100</v>
       </c>
-      <c r="AB89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,19 +7042,21 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -6669,22 +7110,28 @@
         <v>0</v>
       </c>
       <c r="X91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z91" s="3">
         <v>-100</v>
       </c>
       <c r="AA91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7296,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6909,22 +7368,28 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z94" s="3">
         <v>-100</v>
       </c>
       <c r="AA94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,13 +7758,19 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -7291,31 +7782,31 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -7327,10 +7818,10 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>100</v>
@@ -7339,22 +7830,28 @@
         <v>100</v>
       </c>
       <c r="X100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>800</v>
       </c>
-      <c r="AA100" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7930,14 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7454,13 +7957,13 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -7493,24 +7996,30 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VYCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>VYCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,134 +665,138 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
-      </c>
-      <c r="E8" s="3">
-        <v>300</v>
       </c>
       <c r="F8" s="3">
         <v>300</v>
@@ -810,10 +814,10 @@
         <v>300</v>
       </c>
       <c r="K8" s="3">
+        <v>300</v>
+      </c>
+      <c r="L8" s="3">
         <v>500</v>
-      </c>
-      <c r="L8" s="3">
-        <v>300</v>
       </c>
       <c r="M8" s="3">
         <v>300</v>
@@ -822,10 +826,10 @@
         <v>300</v>
       </c>
       <c r="O8" s="3">
+        <v>300</v>
+      </c>
+      <c r="P8" s="3">
         <v>200</v>
-      </c>
-      <c r="P8" s="3">
-        <v>300</v>
       </c>
       <c r="Q8" s="3">
         <v>300</v>
@@ -834,19 +838,19 @@
         <v>300</v>
       </c>
       <c r="S8" s="3">
+        <v>300</v>
+      </c>
+      <c r="T8" s="3">
         <v>400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>500</v>
-      </c>
-      <c r="W8" s="3">
-        <v>300</v>
       </c>
       <c r="X8" s="3">
         <v>300</v>
@@ -855,22 +859,25 @@
         <v>300</v>
       </c>
       <c r="Z8" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA8" s="3">
         <v>400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>400</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>300</v>
       </c>
       <c r="AD8" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -938,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="3">
         <v>100</v>
@@ -947,7 +954,7 @@
         <v>100</v>
       </c>
       <c r="AB9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC9" s="3">
         <v>0</v>
@@ -955,16 +962,19 @@
       <c r="AD9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
-      </c>
-      <c r="E10" s="3">
-        <v>300</v>
       </c>
       <c r="F10" s="3">
         <v>300</v>
@@ -982,10 +992,10 @@
         <v>300</v>
       </c>
       <c r="K10" s="3">
+        <v>300</v>
+      </c>
+      <c r="L10" s="3">
         <v>500</v>
-      </c>
-      <c r="L10" s="3">
-        <v>300</v>
       </c>
       <c r="M10" s="3">
         <v>300</v>
@@ -994,10 +1004,10 @@
         <v>300</v>
       </c>
       <c r="O10" s="3">
+        <v>300</v>
+      </c>
+      <c r="P10" s="3">
         <v>200</v>
-      </c>
-      <c r="P10" s="3">
-        <v>300</v>
       </c>
       <c r="Q10" s="3">
         <v>300</v>
@@ -1006,43 +1016,46 @@
         <v>300</v>
       </c>
       <c r="S10" s="3">
+        <v>300</v>
+      </c>
+      <c r="T10" s="3">
         <v>400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>500</v>
-      </c>
-      <c r="W10" s="3">
-        <v>300</v>
       </c>
       <c r="X10" s="3">
         <v>300</v>
       </c>
       <c r="Y10" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z10" s="3">
         <v>200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>400</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>300</v>
       </c>
       <c r="AD10" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,16 +1086,17 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
+      <c r="E12" s="3">
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>8</v>
@@ -1093,8 +1107,8 @@
       <c r="H12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
+      <c r="I12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -1105,8 +1119,8 @@
       <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>8</v>
+      <c r="M12" s="3">
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>8</v>
@@ -1141,11 +1155,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="3" t="s">
+      <c r="Y12" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>8</v>
@@ -1153,14 +1167,17 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC12" s="3">
-        <v>0</v>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AD12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,34 +1262,37 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1289,11 +1309,11 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1301,11 +1321,11 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>300</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1313,8 +1333,8 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1400,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="3">
         <v>100</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,16 +1472,17 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>400</v>
       </c>
       <c r="F17" s="3">
         <v>400</v>
@@ -1470,10 +1497,10 @@
         <v>400</v>
       </c>
       <c r="J17" s="3">
+        <v>400</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>500</v>
       </c>
       <c r="L17" s="3">
         <v>500</v>
@@ -1485,16 +1512,16 @@
         <v>500</v>
       </c>
       <c r="O17" s="3">
+        <v>500</v>
+      </c>
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
-      </c>
-      <c r="R17" s="3">
-        <v>500</v>
       </c>
       <c r="S17" s="3">
         <v>500</v>
@@ -1503,37 +1530,40 @@
         <v>500</v>
       </c>
       <c r="U17" s="3">
+        <v>500</v>
+      </c>
+      <c r="V17" s="3">
         <v>900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>700</v>
-      </c>
-      <c r="X17" s="3">
-        <v>600</v>
       </c>
       <c r="Y17" s="3">
         <v>600</v>
       </c>
       <c r="Z17" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA17" s="3">
         <v>700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1541,7 +1571,7 @@
         <v>100</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
@@ -1556,13 +1586,13 @@
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
@@ -1577,28 +1607,28 @@
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-300</v>
       </c>
       <c r="Y18" s="3">
         <v>-300</v>
@@ -1607,19 +1637,22 @@
         <v>-300</v>
       </c>
       <c r="AA18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1722,11 +1756,11 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
@@ -1736,16 +1770,19 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
@@ -1754,19 +1791,19 @@
         <v>-100</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>-200</v>
@@ -1778,31 +1815,31 @@
         <v>-200</v>
       </c>
       <c r="P21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q21" s="3">
         <v>-100</v>
       </c>
       <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-200</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-100</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
       </c>
       <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-400</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-300</v>
       </c>
       <c r="Y21" s="3">
         <v>-300</v>
@@ -1811,19 +1848,22 @@
         <v>-300</v>
       </c>
       <c r="AA21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,16 +1948,19 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
@@ -1929,16 +1972,16 @@
         <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>-200</v>
@@ -1953,49 +1996,52 @@
         <v>-200</v>
       </c>
       <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-400</v>
       </c>
       <c r="Z23" s="3">
         <v>-400</v>
       </c>
       <c r="AA23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,16 +2215,19 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
@@ -2187,16 +2239,16 @@
         <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>-200</v>
@@ -2211,66 +2263,69 @@
         <v>-200</v>
       </c>
       <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-400</v>
       </c>
       <c r="Z26" s="3">
         <v>-400</v>
       </c>
       <c r="AA26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-200</v>
       </c>
       <c r="I27" s="3">
         <v>-200</v>
@@ -2279,67 +2334,70 @@
         <v>-200</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-800</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>-500</v>
       </c>
       <c r="AC27" s="3">
         <v>-500</v>
       </c>
       <c r="AD27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AE27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2469,23 +2530,23 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-100</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2754,10 +2824,10 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB32" s="3">
         <v>0</v>
@@ -2768,25 +2838,28 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-200</v>
       </c>
       <c r="I33" s="3">
         <v>-200</v>
@@ -2795,67 +2868,70 @@
         <v>-200</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-800</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>-500</v>
       </c>
       <c r="AC33" s="3">
         <v>-500</v>
       </c>
       <c r="AD33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AE33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,25 +3016,28 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-200</v>
       </c>
       <c r="I35" s="3">
         <v>-200</v>
@@ -2967,158 +3046,164 @@
         <v>-200</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-800</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>-500</v>
       </c>
       <c r="AC35" s="3">
         <v>-500</v>
       </c>
       <c r="AD35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AE35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,13 +3267,14 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -3199,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
@@ -3211,13 +3298,13 @@
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
@@ -3250,25 +3337,28 @@
         <v>100</v>
       </c>
       <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="3">
         <v>200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>600</v>
       </c>
-      <c r="AC41" s="3">
-        <v>100</v>
-      </c>
       <c r="AD41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,13 +3443,16 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
         <v>200</v>
@@ -3374,37 +3467,37 @@
         <v>200</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>200</v>
-      </c>
-      <c r="S43" s="3">
-        <v>300</v>
       </c>
       <c r="T43" s="3">
         <v>300</v>
@@ -3413,11 +3506,11 @@
         <v>300</v>
       </c>
       <c r="V43" s="3">
+        <v>300</v>
+      </c>
+      <c r="W43" s="3">
         <v>200</v>
       </c>
-      <c r="W43" s="3">
-        <v>100</v>
-      </c>
       <c r="X43" s="3">
         <v>100</v>
       </c>
@@ -3425,22 +3518,25 @@
         <v>100</v>
       </c>
       <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA43" s="3">
         <v>200</v>
       </c>
-      <c r="AA43" s="3">
-        <v>100</v>
-      </c>
       <c r="AB43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC43" s="3">
         <v>200</v>
       </c>
-      <c r="AC43" s="3">
-        <v>100</v>
-      </c>
       <c r="AD43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3451,10 +3547,10 @@
         <v>200</v>
       </c>
       <c r="F44" s="3">
+        <v>200</v>
+      </c>
+      <c r="G44" s="3">
         <v>300</v>
-      </c>
-      <c r="G44" s="3">
-        <v>200</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
@@ -3490,13 +3586,13 @@
         <v>200</v>
       </c>
       <c r="S44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T44" s="3">
         <v>300</v>
       </c>
       <c r="U44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V44" s="3">
         <v>200</v>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3579,11 +3678,11 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
-        <v>100</v>
-      </c>
       <c r="V45" s="3">
         <v>100</v>
       </c>
@@ -3611,22 +3710,25 @@
       <c r="AD45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E46" s="3">
         <v>500</v>
       </c>
       <c r="F46" s="3">
+        <v>500</v>
+      </c>
+      <c r="G46" s="3">
         <v>600</v>
-      </c>
-      <c r="G46" s="3">
-        <v>500</v>
       </c>
       <c r="H46" s="3">
         <v>500</v>
@@ -3635,28 +3737,28 @@
         <v>500</v>
       </c>
       <c r="J46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K46" s="3">
         <v>600</v>
       </c>
       <c r="L46" s="3">
+        <v>600</v>
+      </c>
+      <c r="M46" s="3">
         <v>400</v>
-      </c>
-      <c r="M46" s="3">
-        <v>500</v>
       </c>
       <c r="N46" s="3">
         <v>500</v>
       </c>
       <c r="O46" s="3">
+        <v>500</v>
+      </c>
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>700</v>
       </c>
       <c r="R46" s="3">
         <v>700</v>
@@ -3665,40 +3767,43 @@
         <v>700</v>
       </c>
       <c r="T46" s="3">
+        <v>700</v>
+      </c>
+      <c r="U46" s="3">
         <v>800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>500</v>
-      </c>
-      <c r="X46" s="3">
-        <v>600</v>
       </c>
       <c r="Y46" s="3">
         <v>600</v>
       </c>
       <c r="Z46" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="AA46" s="3">
         <v>900</v>
       </c>
       <c r="AB46" s="3">
+        <v>900</v>
+      </c>
+      <c r="AC46" s="3">
         <v>1100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>500</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3795,7 +3903,7 @@
         <v>300</v>
       </c>
       <c r="F48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>400</v>
@@ -3807,7 +3915,7 @@
         <v>400</v>
       </c>
       <c r="J48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K48" s="3">
         <v>500</v>
@@ -3825,10 +3933,10 @@
         <v>500</v>
       </c>
       <c r="P48" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q48" s="3">
         <v>600</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>400</v>
       </c>
       <c r="R48" s="3">
         <v>400</v>
@@ -3846,7 +3954,7 @@
         <v>400</v>
       </c>
       <c r="W48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="X48" s="3">
         <v>500</v>
@@ -3864,13 +3972,16 @@
         <v>500</v>
       </c>
       <c r="AC48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AD48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3889,8 +4000,8 @@
       <c r="H49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -3929,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="V49" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="W49" s="3">
         <v>300</v>
@@ -3941,13 +4052,13 @@
         <v>300</v>
       </c>
       <c r="Z49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AA49" s="3">
         <v>400</v>
       </c>
       <c r="AB49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AC49" s="3">
         <v>500</v>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,16 +4422,19 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>900</v>
+      </c>
+      <c r="E54" s="3">
         <v>800</v>
-      </c>
-      <c r="E54" s="3">
-        <v>900</v>
       </c>
       <c r="F54" s="3">
         <v>900</v>
@@ -4323,13 +4449,13 @@
         <v>900</v>
       </c>
       <c r="J54" s="3">
+        <v>900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1100</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1000</v>
       </c>
       <c r="M54" s="3">
         <v>1000</v>
@@ -4341,7 +4467,7 @@
         <v>1000</v>
       </c>
       <c r="P54" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Q54" s="3">
         <v>1100</v>
@@ -4353,40 +4479,43 @@
         <v>1100</v>
       </c>
       <c r="T54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U54" s="3">
         <v>1200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1300</v>
-      </c>
-      <c r="X54" s="3">
-        <v>1400</v>
       </c>
       <c r="Y54" s="3">
         <v>1400</v>
       </c>
       <c r="Z54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AA54" s="3">
         <v>1700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2100</v>
-      </c>
-      <c r="AC54" s="3">
-        <v>1500</v>
       </c>
       <c r="AD54" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,13 +4579,14 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -4464,10 +4595,10 @@
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -4485,19 +4616,19 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
         <v>200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
       </c>
       <c r="R57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
@@ -4506,7 +4637,7 @@
         <v>200</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
@@ -4521,22 +4652,25 @@
         <v>100</v>
       </c>
       <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA57" s="3">
         <v>200</v>
       </c>
-      <c r="AA57" s="3">
-        <v>100</v>
-      </c>
       <c r="AB57" s="3">
         <v>100</v>
       </c>
       <c r="AC57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AD57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4550,16 +4684,16 @@
         <v>800</v>
       </c>
       <c r="G58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H58" s="3">
         <v>700</v>
       </c>
       <c r="I58" s="3">
+        <v>700</v>
+      </c>
+      <c r="J58" s="3">
         <v>600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>700</v>
       </c>
       <c r="K58" s="3">
         <v>700</v>
@@ -4571,13 +4705,13 @@
         <v>700</v>
       </c>
       <c r="N58" s="3">
+        <v>700</v>
+      </c>
+      <c r="O58" s="3">
         <v>900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>700</v>
-      </c>
-      <c r="P58" s="3">
-        <v>600</v>
       </c>
       <c r="Q58" s="3">
         <v>600</v>
@@ -4586,13 +4720,13 @@
         <v>600</v>
       </c>
       <c r="S58" s="3">
+        <v>600</v>
+      </c>
+      <c r="T58" s="3">
         <v>500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>600</v>
-      </c>
-      <c r="U58" s="3">
-        <v>500</v>
       </c>
       <c r="V58" s="3">
         <v>500</v>
@@ -4601,10 +4735,10 @@
         <v>500</v>
       </c>
       <c r="X58" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y58" s="3">
         <v>400</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>300</v>
       </c>
       <c r="Z58" s="3">
         <v>300</v>
@@ -4616,99 +4750,105 @@
         <v>300</v>
       </c>
       <c r="AC58" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="AD58" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E59" s="3">
         <v>2800</v>
-      </c>
-      <c r="E59" s="3">
-        <v>2600</v>
       </c>
       <c r="F59" s="3">
         <v>2600</v>
       </c>
       <c r="G59" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="H59" s="3">
         <v>2500</v>
       </c>
       <c r="I59" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="J59" s="3">
         <v>2300</v>
       </c>
       <c r="K59" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="L59" s="3">
         <v>2100</v>
       </c>
       <c r="M59" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="N59" s="3">
         <v>1900</v>
       </c>
       <c r="O59" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="P59" s="3">
         <v>1700</v>
       </c>
       <c r="Q59" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="R59" s="3">
         <v>1600</v>
       </c>
       <c r="S59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T59" s="3">
         <v>1500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1400</v>
-      </c>
-      <c r="U59" s="3">
-        <v>1200</v>
       </c>
       <c r="V59" s="3">
         <v>1200</v>
       </c>
       <c r="W59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X59" s="3">
         <v>900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4716,85 +4856,88 @@
         <v>3800</v>
       </c>
       <c r="E60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F60" s="3">
         <v>3700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3600</v>
-      </c>
-      <c r="G60" s="3">
-        <v>3400</v>
       </c>
       <c r="H60" s="3">
         <v>3400</v>
       </c>
       <c r="I60" s="3">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="J60" s="3">
         <v>3100</v>
       </c>
       <c r="K60" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="L60" s="3">
         <v>3000</v>
       </c>
       <c r="M60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N60" s="3">
         <v>2700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2800</v>
-      </c>
-      <c r="O60" s="3">
-        <v>2600</v>
       </c>
       <c r="P60" s="3">
         <v>2600</v>
       </c>
       <c r="Q60" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="R60" s="3">
         <v>2400</v>
       </c>
       <c r="S60" s="3">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="T60" s="3">
         <v>2100</v>
       </c>
       <c r="U60" s="3">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="V60" s="3">
         <v>1800</v>
       </c>
       <c r="W60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="X60" s="3">
         <v>1500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4814,7 +4957,7 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>200</v>
@@ -4829,7 +4972,7 @@
         <v>200</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -4879,16 +5022,19 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -4906,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
@@ -4923,20 +5069,20 @@
       <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
+      <c r="Q62" s="3">
+        <v>100</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
@@ -4947,8 +5093,8 @@
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,8 +5378,11 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5232,85 +5390,88 @@
         <v>3900</v>
       </c>
       <c r="E66" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F66" s="3">
         <v>3800</v>
       </c>
       <c r="G66" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="H66" s="3">
         <v>3500</v>
       </c>
       <c r="I66" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J66" s="3">
         <v>3300</v>
       </c>
       <c r="K66" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="L66" s="3">
         <v>3200</v>
       </c>
       <c r="M66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N66" s="3">
         <v>3000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2900</v>
-      </c>
-      <c r="O66" s="3">
-        <v>2700</v>
       </c>
       <c r="P66" s="3">
         <v>2700</v>
       </c>
       <c r="Q66" s="3">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="R66" s="3">
         <v>2400</v>
       </c>
       <c r="S66" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="T66" s="3">
         <v>2200</v>
       </c>
       <c r="U66" s="3">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="V66" s="3">
         <v>1800</v>
       </c>
       <c r="W66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="X66" s="3">
         <v>1500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-32600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-32400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-32300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-32000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-31900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-31700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-31500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-31400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-31300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-30900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-30700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-30400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-30100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-29800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-29600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-29200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-29000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-28700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-28200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-27900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-27500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-27000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-26600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-26000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-25600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-25200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-24700</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-2600</v>
       </c>
       <c r="H76" s="3">
         <v>-2600</v>
       </c>
       <c r="I76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J76" s="3">
         <v>-2400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-1000</v>
       </c>
       <c r="T76" s="3">
         <v>-1000</v>
       </c>
       <c r="U76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V76" s="3">
         <v>-800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-300</v>
       </c>
-      <c r="Y76" s="3">
-        <v>100</v>
-      </c>
       <c r="Z76" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA76" s="3">
         <v>400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>800</v>
       </c>
-      <c r="AC76" s="3">
-        <v>0</v>
-      </c>
       <c r="AD76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,116 +6390,122 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-200</v>
       </c>
       <c r="I81" s="3">
         <v>-200</v>
@@ -6319,67 +6514,70 @@
         <v>-200</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-800</v>
-      </c>
-      <c r="AB81" s="3">
-        <v>-500</v>
       </c>
       <c r="AC81" s="3">
         <v>-500</v>
       </c>
       <c r="AD81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AE81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6479,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="Y83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z83" s="3">
         <v>100</v>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6938,46 +7155,46 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>100</v>
-      </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -6989,31 +7206,34 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
       </c>
       <c r="Y89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>-200</v>
       </c>
       <c r="AB89" s="3">
         <v>-200</v>
       </c>
       <c r="AC89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-100</v>
       </c>
-      <c r="AD89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7116,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="Z91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA91" s="3">
         <v>-100</v>
@@ -7125,13 +7346,16 @@
         <v>-100</v>
       </c>
       <c r="AC91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7374,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="Z94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA94" s="3">
         <v>-100</v>
@@ -7383,13 +7613,16 @@
         <v>-100</v>
       </c>
       <c r="AC94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7776,16 +8022,16 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -7794,22 +8040,22 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -7824,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>100</v>
@@ -7836,22 +8082,25 @@
         <v>100</v>
       </c>
       <c r="Z100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA100" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="AB100" s="3">
         <v>800</v>
       </c>
       <c r="AC100" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="AD100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7963,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -8002,24 +8254,27 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y102" s="3">
         <v>-100</v>
       </c>
       <c r="Z102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-200</v>
-      </c>
-      <c r="AA102" s="3">
-        <v>500</v>
       </c>
       <c r="AB102" s="3">
         <v>500</v>
       </c>
       <c r="AC102" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VYCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VYCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>VYCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,145 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
-      </c>
-      <c r="F8" s="3">
-        <v>300</v>
       </c>
       <c r="G8" s="3">
         <v>300</v>
@@ -817,10 +821,10 @@
         <v>300</v>
       </c>
       <c r="L8" s="3">
+        <v>300</v>
+      </c>
+      <c r="M8" s="3">
         <v>500</v>
-      </c>
-      <c r="M8" s="3">
-        <v>300</v>
       </c>
       <c r="N8" s="3">
         <v>300</v>
@@ -829,10 +833,10 @@
         <v>300</v>
       </c>
       <c r="P8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q8" s="3">
         <v>200</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>300</v>
       </c>
       <c r="R8" s="3">
         <v>300</v>
@@ -841,19 +845,19 @@
         <v>300</v>
       </c>
       <c r="T8" s="3">
+        <v>300</v>
+      </c>
+      <c r="U8" s="3">
         <v>400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>500</v>
-      </c>
-      <c r="X8" s="3">
-        <v>300</v>
       </c>
       <c r="Y8" s="3">
         <v>300</v>
@@ -862,22 +866,25 @@
         <v>300</v>
       </c>
       <c r="AA8" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB8" s="3">
         <v>400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>400</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>300</v>
       </c>
       <c r="AE8" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -948,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="3">
         <v>100</v>
@@ -957,7 +964,7 @@
         <v>100</v>
       </c>
       <c r="AC9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD9" s="3">
         <v>0</v>
@@ -965,19 +972,22 @@
       <c r="AE9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>400</v>
-      </c>
-      <c r="F10" s="3">
-        <v>300</v>
       </c>
       <c r="G10" s="3">
         <v>300</v>
@@ -995,10 +1005,10 @@
         <v>300</v>
       </c>
       <c r="L10" s="3">
+        <v>300</v>
+      </c>
+      <c r="M10" s="3">
         <v>500</v>
-      </c>
-      <c r="M10" s="3">
-        <v>300</v>
       </c>
       <c r="N10" s="3">
         <v>300</v>
@@ -1007,10 +1017,10 @@
         <v>300</v>
       </c>
       <c r="P10" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>300</v>
       </c>
       <c r="R10" s="3">
         <v>300</v>
@@ -1019,43 +1029,46 @@
         <v>300</v>
       </c>
       <c r="T10" s="3">
+        <v>300</v>
+      </c>
+      <c r="U10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>500</v>
-      </c>
-      <c r="X10" s="3">
-        <v>300</v>
       </c>
       <c r="Y10" s="3">
         <v>300</v>
       </c>
       <c r="Z10" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA10" s="3">
         <v>200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>400</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>300</v>
       </c>
       <c r="AE10" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1098,8 +1112,8 @@
       <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
+      <c r="F12" s="3">
+        <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -1110,8 +1124,8 @@
       <c r="I12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
+      <c r="J12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -1122,8 +1136,8 @@
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>8</v>
+      <c r="N12" s="3">
+        <v>0</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>8</v>
@@ -1158,11 +1172,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="3" t="s">
+      <c r="Z12" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
       </c>
       <c r="AB12" s="3" t="s">
         <v>8</v>
@@ -1170,14 +1184,17 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD12" s="3">
-        <v>0</v>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AE12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1276,26 +1296,26 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1312,11 +1332,11 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1324,11 +1344,11 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
         <v>300</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1336,8 +1356,8 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1426,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="3">
         <v>100</v>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,19 +1499,20 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>400</v>
       </c>
       <c r="G17" s="3">
         <v>400</v>
@@ -1500,10 +1527,10 @@
         <v>400</v>
       </c>
       <c r="K17" s="3">
+        <v>400</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>500</v>
       </c>
       <c r="M17" s="3">
         <v>500</v>
@@ -1515,16 +1542,16 @@
         <v>500</v>
       </c>
       <c r="P17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
-      </c>
-      <c r="S17" s="3">
-        <v>500</v>
       </c>
       <c r="T17" s="3">
         <v>500</v>
@@ -1533,48 +1560,51 @@
         <v>500</v>
       </c>
       <c r="V17" s="3">
+        <v>500</v>
+      </c>
+      <c r="W17" s="3">
         <v>900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>700</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>600</v>
       </c>
       <c r="Z17" s="3">
         <v>600</v>
       </c>
       <c r="AA17" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB17" s="3">
         <v>700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>800</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>100</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
         <v>100</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
@@ -1589,13 +1619,13 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
@@ -1610,28 +1640,28 @@
         <v>-200</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-300</v>
       </c>
       <c r="Z18" s="3">
         <v>-300</v>
@@ -1640,19 +1670,22 @@
         <v>-300</v>
       </c>
       <c r="AB18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-500</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,13 +1717,14 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1759,11 +1793,11 @@
         <v>0</v>
       </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
       <c r="AC20" s="3">
         <v>0</v>
       </c>
@@ -1773,19 +1807,22 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>100</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
         <v>-100</v>
@@ -1794,19 +1831,19 @@
         <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
       <c r="M21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
         <v>-200</v>
@@ -1818,31 +1855,31 @@
         <v>-200</v>
       </c>
       <c r="Q21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R21" s="3">
         <v>-100</v>
       </c>
       <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
         <v>-200</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-100</v>
       </c>
       <c r="U21" s="3">
         <v>-100</v>
       </c>
       <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3">
         <v>-400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-300</v>
       </c>
       <c r="Z21" s="3">
         <v>-300</v>
@@ -1851,19 +1888,22 @@
         <v>-300</v>
       </c>
       <c r="AB21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-200</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-400</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1951,19 +1991,22 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
@@ -1975,16 +2018,16 @@
         <v>-100</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
@@ -1999,49 +2042,52 @@
         <v>-200</v>
       </c>
       <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-100</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
       </c>
       <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-400</v>
       </c>
       <c r="AA23" s="3">
         <v>-400</v>
       </c>
       <c r="AB23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-500</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,19 +2267,22 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
@@ -2242,16 +2294,16 @@
         <v>-100</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
@@ -2266,69 +2318,72 @@
         <v>-200</v>
       </c>
       <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-100</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
       </c>
       <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-400</v>
       </c>
       <c r="AA26" s="3">
         <v>-400</v>
       </c>
       <c r="AB26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-500</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
@@ -2337,67 +2392,70 @@
         <v>-200</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-800</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>-500</v>
       </c>
       <c r="AD27" s="3">
         <v>-500</v>
       </c>
       <c r="AE27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AF27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2533,23 +2594,23 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-100</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,13 +2819,16 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2827,10 +2897,10 @@
         <v>0</v>
       </c>
       <c r="AA32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC32" s="3">
         <v>0</v>
@@ -2841,28 +2911,31 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
@@ -2871,67 +2944,70 @@
         <v>-200</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-800</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>-500</v>
       </c>
       <c r="AD33" s="3">
         <v>-500</v>
       </c>
       <c r="AE33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AF33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,28 +3095,31 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
@@ -3049,161 +3128,167 @@
         <v>-200</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-800</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>-500</v>
       </c>
       <c r="AD35" s="3">
         <v>-500</v>
       </c>
       <c r="AE35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AF35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,8 +3354,9 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3277,7 +3364,7 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -3289,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
@@ -3301,13 +3388,13 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
@@ -3340,25 +3427,28 @@
         <v>100</v>
       </c>
       <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
         <v>200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>600</v>
       </c>
-      <c r="AD41" s="3">
-        <v>100</v>
-      </c>
       <c r="AE41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3455,7 +3548,7 @@
         <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
@@ -3470,37 +3563,37 @@
         <v>200</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>200</v>
-      </c>
-      <c r="T43" s="3">
-        <v>300</v>
       </c>
       <c r="U43" s="3">
         <v>300</v>
@@ -3509,11 +3602,11 @@
         <v>300</v>
       </c>
       <c r="W43" s="3">
+        <v>300</v>
+      </c>
+      <c r="X43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="3">
-        <v>100</v>
-      </c>
       <c r="Y43" s="3">
         <v>100</v>
       </c>
@@ -3521,22 +3614,25 @@
         <v>100</v>
       </c>
       <c r="AA43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB43" s="3">
         <v>200</v>
       </c>
-      <c r="AB43" s="3">
-        <v>100</v>
-      </c>
       <c r="AC43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD43" s="3">
         <v>200</v>
       </c>
-      <c r="AD43" s="3">
-        <v>100</v>
-      </c>
       <c r="AE43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3550,10 +3646,10 @@
         <v>200</v>
       </c>
       <c r="G44" s="3">
+        <v>200</v>
+      </c>
+      <c r="H44" s="3">
         <v>300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>200</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
@@ -3589,13 +3685,13 @@
         <v>200</v>
       </c>
       <c r="T44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U44" s="3">
         <v>300</v>
       </c>
       <c r="V44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W44" s="3">
         <v>200</v>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3681,11 +3780,11 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
-        <v>100</v>
-      </c>
       <c r="W45" s="3">
         <v>100</v>
       </c>
@@ -3713,8 +3812,11 @@
       <c r="AE45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3722,16 +3824,16 @@
         <v>600</v>
       </c>
       <c r="E46" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F46" s="3">
         <v>500</v>
       </c>
       <c r="G46" s="3">
+        <v>500</v>
+      </c>
+      <c r="H46" s="3">
         <v>600</v>
-      </c>
-      <c r="H46" s="3">
-        <v>500</v>
       </c>
       <c r="I46" s="3">
         <v>500</v>
@@ -3740,28 +3842,28 @@
         <v>500</v>
       </c>
       <c r="K46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L46" s="3">
         <v>600</v>
       </c>
       <c r="M46" s="3">
+        <v>600</v>
+      </c>
+      <c r="N46" s="3">
         <v>400</v>
-      </c>
-      <c r="N46" s="3">
-        <v>500</v>
       </c>
       <c r="O46" s="3">
         <v>500</v>
       </c>
       <c r="P46" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
-      </c>
-      <c r="R46" s="3">
-        <v>700</v>
       </c>
       <c r="S46" s="3">
         <v>700</v>
@@ -3770,40 +3872,43 @@
         <v>700</v>
       </c>
       <c r="U46" s="3">
+        <v>700</v>
+      </c>
+      <c r="V46" s="3">
         <v>800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>500</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>600</v>
       </c>
       <c r="Z46" s="3">
         <v>600</v>
       </c>
       <c r="AA46" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="AB46" s="3">
         <v>900</v>
       </c>
       <c r="AC46" s="3">
+        <v>900</v>
+      </c>
+      <c r="AD46" s="3">
         <v>1100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>500</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,13 +3996,16 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
         <v>300</v>
@@ -3906,7 +4014,7 @@
         <v>300</v>
       </c>
       <c r="G48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H48" s="3">
         <v>400</v>
@@ -3918,7 +4026,7 @@
         <v>400</v>
       </c>
       <c r="K48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L48" s="3">
         <v>500</v>
@@ -3936,10 +4044,10 @@
         <v>500</v>
       </c>
       <c r="Q48" s="3">
+        <v>500</v>
+      </c>
+      <c r="R48" s="3">
         <v>600</v>
-      </c>
-      <c r="R48" s="3">
-        <v>400</v>
       </c>
       <c r="S48" s="3">
         <v>400</v>
@@ -3957,7 +4065,7 @@
         <v>400</v>
       </c>
       <c r="X48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Y48" s="3">
         <v>500</v>
@@ -3975,18 +4083,21 @@
         <v>500</v>
       </c>
       <c r="AD48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AE48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>200</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>8</v>
@@ -4003,8 +4114,8 @@
       <c r="I49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -4043,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="W49" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="X49" s="3">
         <v>300</v>
@@ -4055,13 +4166,13 @@
         <v>300</v>
       </c>
       <c r="AA49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AB49" s="3">
         <v>400</v>
       </c>
       <c r="AC49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AD49" s="3">
         <v>500</v>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,19 +4548,22 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E54" s="3">
         <v>900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>800</v>
-      </c>
-      <c r="F54" s="3">
-        <v>900</v>
       </c>
       <c r="G54" s="3">
         <v>900</v>
@@ -4452,13 +4578,13 @@
         <v>900</v>
       </c>
       <c r="K54" s="3">
+        <v>900</v>
+      </c>
+      <c r="L54" s="3">
         <v>1000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1100</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1000</v>
       </c>
       <c r="N54" s="3">
         <v>1000</v>
@@ -4470,7 +4596,7 @@
         <v>1000</v>
       </c>
       <c r="Q54" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="R54" s="3">
         <v>1100</v>
@@ -4482,40 +4608,43 @@
         <v>1100</v>
       </c>
       <c r="U54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V54" s="3">
         <v>1200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1300</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>1400</v>
       </c>
       <c r="Z54" s="3">
         <v>1400</v>
       </c>
       <c r="AA54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AB54" s="3">
         <v>1700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2100</v>
-      </c>
-      <c r="AD54" s="3">
-        <v>1500</v>
       </c>
       <c r="AE54" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4589,7 +4720,7 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -4598,10 +4729,10 @@
         <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -4619,19 +4750,19 @@
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
       </c>
       <c r="S57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
@@ -4640,7 +4771,7 @@
         <v>200</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W57" s="3">
         <v>100</v>
@@ -4655,22 +4786,25 @@
         <v>100</v>
       </c>
       <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB57" s="3">
         <v>200</v>
       </c>
-      <c r="AB57" s="3">
-        <v>100</v>
-      </c>
       <c r="AC57" s="3">
         <v>100</v>
       </c>
       <c r="AD57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AE57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4687,16 +4821,16 @@
         <v>800</v>
       </c>
       <c r="H58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I58" s="3">
         <v>700</v>
       </c>
       <c r="J58" s="3">
+        <v>700</v>
+      </c>
+      <c r="K58" s="3">
         <v>600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>700</v>
       </c>
       <c r="L58" s="3">
         <v>700</v>
@@ -4708,13 +4842,13 @@
         <v>700</v>
       </c>
       <c r="O58" s="3">
+        <v>700</v>
+      </c>
+      <c r="P58" s="3">
         <v>900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>700</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>600</v>
       </c>
       <c r="R58" s="3">
         <v>600</v>
@@ -4723,13 +4857,13 @@
         <v>600</v>
       </c>
       <c r="T58" s="3">
+        <v>600</v>
+      </c>
+      <c r="U58" s="3">
         <v>500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>600</v>
-      </c>
-      <c r="V58" s="3">
-        <v>500</v>
       </c>
       <c r="W58" s="3">
         <v>500</v>
@@ -4738,10 +4872,10 @@
         <v>500</v>
       </c>
       <c r="Y58" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z58" s="3">
         <v>400</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>300</v>
       </c>
       <c r="AA58" s="3">
         <v>300</v>
@@ -4753,191 +4887,200 @@
         <v>300</v>
       </c>
       <c r="AD58" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="AE58" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E59" s="3">
         <v>2900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>2600</v>
       </c>
       <c r="G59" s="3">
         <v>2600</v>
       </c>
       <c r="H59" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I59" s="3">
         <v>2500</v>
       </c>
       <c r="J59" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="K59" s="3">
         <v>2300</v>
       </c>
       <c r="L59" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="M59" s="3">
         <v>2100</v>
       </c>
       <c r="N59" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="O59" s="3">
         <v>1900</v>
       </c>
       <c r="P59" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="Q59" s="3">
         <v>1700</v>
       </c>
       <c r="R59" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="S59" s="3">
         <v>1600</v>
       </c>
       <c r="T59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U59" s="3">
         <v>1500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1400</v>
-      </c>
-      <c r="V59" s="3">
-        <v>1200</v>
       </c>
       <c r="W59" s="3">
         <v>1200</v>
       </c>
       <c r="X59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y59" s="3">
         <v>900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>900</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>700</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="E60" s="3">
         <v>3800</v>
       </c>
       <c r="F60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G60" s="3">
         <v>3700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>3400</v>
       </c>
       <c r="I60" s="3">
         <v>3400</v>
       </c>
       <c r="J60" s="3">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="K60" s="3">
         <v>3100</v>
       </c>
       <c r="L60" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="M60" s="3">
         <v>3000</v>
       </c>
       <c r="N60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O60" s="3">
         <v>2700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2800</v>
-      </c>
-      <c r="P60" s="3">
-        <v>2600</v>
       </c>
       <c r="Q60" s="3">
         <v>2600</v>
       </c>
       <c r="R60" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="S60" s="3">
         <v>2400</v>
       </c>
       <c r="T60" s="3">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="U60" s="3">
         <v>2100</v>
       </c>
       <c r="V60" s="3">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="W60" s="3">
         <v>1800</v>
       </c>
       <c r="X60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Y60" s="3">
         <v>1500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1500</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4960,7 +5103,7 @@
         <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>200</v>
@@ -4975,7 +5118,7 @@
         <v>200</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5036,8 +5182,8 @@
       <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -5055,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
@@ -5072,20 +5218,20 @@
       <c r="Q62" s="3">
         <v>100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
+      <c r="R62" s="3">
+        <v>100</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
+      <c r="V62" s="3">
+        <v>0</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>8</v>
@@ -5096,8 +5242,8 @@
       <c r="Y62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z62" s="3">
-        <v>0</v>
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA62" s="3">
         <v>0</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3900</v>
+        <v>4300</v>
       </c>
       <c r="E66" s="3">
         <v>3900</v>
       </c>
       <c r="F66" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="G66" s="3">
         <v>3800</v>
       </c>
       <c r="H66" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="I66" s="3">
         <v>3500</v>
       </c>
       <c r="J66" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="K66" s="3">
         <v>3300</v>
       </c>
       <c r="L66" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="M66" s="3">
         <v>3200</v>
       </c>
       <c r="N66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O66" s="3">
         <v>3000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2900</v>
-      </c>
-      <c r="P66" s="3">
-        <v>2700</v>
       </c>
       <c r="Q66" s="3">
         <v>2700</v>
       </c>
       <c r="R66" s="3">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="S66" s="3">
         <v>2400</v>
       </c>
       <c r="T66" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="U66" s="3">
         <v>2200</v>
       </c>
       <c r="V66" s="3">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="W66" s="3">
         <v>1800</v>
       </c>
       <c r="X66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Y66" s="3">
         <v>1500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1300</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1500</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-32500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-32600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-32400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-32300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-32000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-31900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-31700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-31500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-31400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-31300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-30900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-30700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-30400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-30100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-29800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-29600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-29200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-29000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-28700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-28200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-27900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-27500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-27000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-26600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-26000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-25600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-25200</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-24700</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2800</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-2600</v>
       </c>
       <c r="I76" s="3">
         <v>-2600</v>
       </c>
       <c r="J76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K76" s="3">
         <v>-2400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1300</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-1000</v>
       </c>
       <c r="U76" s="3">
         <v>-1000</v>
       </c>
       <c r="V76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W76" s="3">
         <v>-800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-300</v>
       </c>
-      <c r="Z76" s="3">
-        <v>100</v>
-      </c>
       <c r="AA76" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB76" s="3">
         <v>400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>800</v>
       </c>
-      <c r="AD76" s="3">
-        <v>0</v>
-      </c>
       <c r="AE76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,122 +6582,128 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
@@ -6517,67 +6712,70 @@
         <v>-200</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-800</v>
-      </c>
-      <c r="AC81" s="3">
-        <v>-500</v>
       </c>
       <c r="AD81" s="3">
         <v>-500</v>
       </c>
       <c r="AE81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AF81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6681,7 +6880,7 @@
         <v>0</v>
       </c>
       <c r="Z83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA83" s="3">
         <v>100</v>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,8 +7357,11 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7158,46 +7375,46 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>100</v>
-      </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
@@ -7209,31 +7426,34 @@
         <v>0</v>
       </c>
       <c r="X89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="3">
         <v>-100</v>
       </c>
       <c r="Z89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-100</v>
-      </c>
-      <c r="AB89" s="3">
-        <v>-200</v>
       </c>
       <c r="AC89" s="3">
         <v>-200</v>
       </c>
       <c r="AD89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE89" s="3">
         <v>-100</v>
       </c>
-      <c r="AE89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7340,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="AA91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB91" s="3">
         <v>-100</v>
@@ -7349,13 +7570,16 @@
         <v>-100</v>
       </c>
       <c r="AD91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7607,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="AA94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB94" s="3">
         <v>-100</v>
@@ -7616,13 +7846,16 @@
         <v>-100</v>
       </c>
       <c r="AD94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8025,16 +8271,16 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -8043,22 +8289,22 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -8073,7 +8319,7 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>100</v>
@@ -8085,22 +8331,25 @@
         <v>100</v>
       </c>
       <c r="AA100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB100" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="AC100" s="3">
         <v>800</v>
       </c>
       <c r="AD100" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="AE100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,8 +8437,11 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8218,10 +8470,10 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -8257,24 +8509,27 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z102" s="3">
         <v>-100</v>
       </c>
       <c r="AA102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-200</v>
-      </c>
-      <c r="AB102" s="3">
-        <v>500</v>
       </c>
       <c r="AC102" s="3">
         <v>500</v>
       </c>
       <c r="AD102" s="3">
+        <v>500</v>
+      </c>
+      <c r="AE102" s="3">
         <v>-100</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
